--- a/data/SET_Max_dh_scoring.xlsx
+++ b/data/SET_Max_dh_scoring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Livia/Library/Mobile Documents/com~apple~CloudDocs/Cambridge University/Thesis/Model/Input Data/UK Archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Livia/Desktop/Heatscore/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B7893-6FB5-C345-8A04-6DFC223C5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4676391-F740-6749-8116-0E3D58E22609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="24180" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="-19680" windowWidth="24180" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clipped Scoring" sheetId="6" r:id="rId1"/>
@@ -765,10 +765,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C5C85-88B9-284B-AFB4-50B950E2E5E6}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="69" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,26 +1171,26 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
       <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
@@ -1281,7 +1281,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>59</v>
       </c>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>60</v>
       </c>
@@ -1840,12 +1840,12 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1860,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -1872,17 +1872,17 @@
         <v>10</v>
       </c>
       <c r="M17">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>10</v>
       </c>
       <c r="O17">
-        <v>5.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2030</v>
       </c>
       <c r="C18" t="s">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>32</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>34</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>35</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>62</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>63</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>64</v>
       </c>
@@ -2472,7 +2472,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>65</v>
       </c>
@@ -2514,7 +2514,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>2050</v>
       </c>
       <c r="C33" t="s">
@@ -2558,7 +2558,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>38</v>
       </c>
@@ -2600,7 +2600,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2684,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>40</v>
       </c>
@@ -2726,7 +2726,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>43</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
       <c r="C41" t="s">
         <v>44</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -2936,7 +2936,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>67</v>
       </c>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>68</v>
       </c>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>69</v>
       </c>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>70</v>
       </c>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
       <c r="C47" t="s">
         <v>71</v>
       </c>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>2080</v>
       </c>
       <c r="C48" t="s">
@@ -3196,7 +3196,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>46</v>
       </c>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
       <c r="C50" t="s">
         <v>47</v>
       </c>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>48</v>
       </c>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
       <c r="C53" t="s">
         <v>49</v>
       </c>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
       <c r="C54" t="s">
         <v>50</v>
       </c>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>51</v>
       </c>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
       <c r="C56" t="s">
         <v>52</v>
       </c>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
       <c r="C57" t="s">
         <v>72</v>
       </c>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
       <c r="C58" t="s">
         <v>73</v>
       </c>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
       <c r="C59" t="s">
         <v>74</v>
       </c>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>76</v>
       </c>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
       <c r="C62" t="s">
         <v>77</v>
       </c>

--- a/data/SET_Max_dh_scoring.xlsx
+++ b/data/SET_Max_dh_scoring.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Livia/Desktop/Heatscore/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4676391-F740-6749-8116-0E3D58E22609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687CA83C-C2B4-8C45-9B30-912DB6C526B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="-19680" windowWidth="24180" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5780" yWindow="-20340" windowWidth="28780" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clipped Scoring" sheetId="6" r:id="rId1"/>
+    <sheet name="Degree Hours" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
   <si>
     <t>Bungalow (detached)</t>
   </si>
@@ -101,15 +102,6 @@
     <t>2022 Heatwave + UHI 2</t>
   </si>
   <si>
-    <t xml:space="preserve">2022 Heatwave 3 days </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022 Heatwave 5 days </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022 Heatwave 7 days </t>
-  </si>
-  <si>
     <t>2022 Heatwave 3 days + UHI 1</t>
   </si>
   <si>
@@ -267,13 +259,22 @@
   </si>
   <si>
     <t>2080 Heatwave 7 days + UHI 2</t>
+  </si>
+  <si>
+    <t>2022 Heatwave 3 days</t>
+  </si>
+  <si>
+    <t>2022 Heatwave 5 days</t>
+  </si>
+  <si>
+    <t>2022 Heatwave 7 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +415,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -758,7 +766,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -770,6 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -815,7 +824,43 @@
     <cellStyle name="Warnender Text" xfId="40" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="41" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1147,14 +1192,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C5C85-88B9-284B-AFB4-50B950E2E5E6}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="69" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView topLeftCell="A31" zoomScale="121" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -1172,20 +1217,20 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1237,7 +1282,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1498,7 +1543,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1541,7 +1586,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1584,7 +1629,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1627,7 +1672,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1670,7 +1715,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1713,7 +1758,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1756,7 +1801,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1799,7 +1844,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1842,7 +1887,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>0.1</v>
@@ -1886,7 +1931,7 @@
         <v>2030</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1928,7 +1973,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1970,7 +2015,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2054,7 +2099,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2096,7 +2141,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2138,7 +2183,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2180,7 +2225,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2222,7 +2267,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2264,7 +2309,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2306,7 +2351,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2348,7 +2393,7 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2390,7 +2435,7 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2432,7 +2477,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2474,7 +2519,7 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>0.1</v>
@@ -2518,7 +2563,7 @@
         <v>2050</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2560,7 +2605,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2602,7 +2647,7 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2686,7 +2731,7 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37">
         <v>0.3</v>
@@ -2728,7 +2773,7 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2770,7 +2815,7 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2812,7 +2857,7 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2854,7 +2899,7 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2896,7 +2941,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>0.3</v>
@@ -2938,7 +2983,7 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2981,7 +3026,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44">
         <v>0.3</v>
@@ -3024,7 +3069,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3067,7 +3112,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D46">
         <v>0.3</v>
@@ -3110,7 +3155,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3155,7 +3200,7 @@
         <v>2080</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3198,7 +3243,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3241,7 +3286,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3327,7 +3372,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D52">
         <v>1.5</v>
@@ -3370,7 +3415,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D53">
         <v>4.3</v>
@@ -3413,7 +3458,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D54">
         <v>0.5</v>
@@ -3456,7 +3501,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D55">
         <v>0.5</v>
@@ -3499,7 +3544,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D56">
         <v>0.5</v>
@@ -3542,7 +3587,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57">
         <v>1.5</v>
@@ -3585,7 +3630,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <v>4.3</v>
@@ -3628,7 +3673,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>1.5</v>
@@ -3671,7 +3716,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D60">
         <v>4.3</v>
@@ -3714,7 +3759,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>1.5</v>
@@ -3757,7 +3802,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D62">
         <v>4.3</v>
@@ -3902,4 +3947,2631 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B93B8E-545B-C042-B5CF-3BAB589F30D9}">
+  <dimension ref="B1:O62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8.15</v>
+      </c>
+      <c r="F3">
+        <v>8.02</v>
+      </c>
+      <c r="G3">
+        <v>8.07</v>
+      </c>
+      <c r="H3">
+        <v>3.55</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.37</v>
+      </c>
+      <c r="N3">
+        <v>9.1</v>
+      </c>
+      <c r="O3">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>15.92</v>
+      </c>
+      <c r="F4">
+        <v>15.87</v>
+      </c>
+      <c r="G4">
+        <v>15.13</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
+      </c>
+      <c r="I4">
+        <v>0.98</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="L4">
+        <v>7.73</v>
+      </c>
+      <c r="M4">
+        <v>3.53</v>
+      </c>
+      <c r="N4">
+        <v>15.96</v>
+      </c>
+      <c r="O4">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>31.31</v>
+      </c>
+      <c r="F5">
+        <v>34.69</v>
+      </c>
+      <c r="G5">
+        <v>27.52</v>
+      </c>
+      <c r="H5">
+        <v>16.73</v>
+      </c>
+      <c r="I5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J5">
+        <v>1.82</v>
+      </c>
+      <c r="K5">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="L5">
+        <v>15.73</v>
+      </c>
+      <c r="M5">
+        <v>9.39</v>
+      </c>
+      <c r="N5">
+        <v>26.29</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>90.34</v>
+      </c>
+      <c r="F6">
+        <v>139.36000000000001</v>
+      </c>
+      <c r="G6">
+        <v>80.2</v>
+      </c>
+      <c r="H6">
+        <v>65.16</v>
+      </c>
+      <c r="I6">
+        <v>20.16</v>
+      </c>
+      <c r="J6">
+        <v>2.63</v>
+      </c>
+      <c r="K6">
+        <v>25.24</v>
+      </c>
+      <c r="L6">
+        <v>51.47</v>
+      </c>
+      <c r="M6">
+        <v>22.69</v>
+      </c>
+      <c r="N6">
+        <v>65.42</v>
+      </c>
+      <c r="O6">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>150.57</v>
+      </c>
+      <c r="F7">
+        <v>209.88</v>
+      </c>
+      <c r="G7">
+        <v>131.78</v>
+      </c>
+      <c r="H7">
+        <v>103.84</v>
+      </c>
+      <c r="I7">
+        <v>34.44</v>
+      </c>
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
+        <v>41.96</v>
+      </c>
+      <c r="L7">
+        <v>80.94</v>
+      </c>
+      <c r="M7">
+        <v>38.56</v>
+      </c>
+      <c r="N7">
+        <v>99.55</v>
+      </c>
+      <c r="O7">
+        <v>39.44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>231.64</v>
+      </c>
+      <c r="F8">
+        <v>299.95999999999998</v>
+      </c>
+      <c r="G8">
+        <v>204.94</v>
+      </c>
+      <c r="H8">
+        <v>158.4</v>
+      </c>
+      <c r="I8">
+        <v>57.32</v>
+      </c>
+      <c r="J8">
+        <v>11.17</v>
+      </c>
+      <c r="K8">
+        <v>68.510000000000005</v>
+      </c>
+      <c r="L8">
+        <v>121.79</v>
+      </c>
+      <c r="M8">
+        <v>63.43</v>
+      </c>
+      <c r="N8">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="O8">
+        <v>66.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>217.73</v>
+      </c>
+      <c r="F9">
+        <v>299.16000000000003</v>
+      </c>
+      <c r="G9">
+        <v>197.09</v>
+      </c>
+      <c r="H9">
+        <v>173.69</v>
+      </c>
+      <c r="I9">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="J9">
+        <v>15.67</v>
+      </c>
+      <c r="K9">
+        <v>83.87</v>
+      </c>
+      <c r="L9">
+        <v>155.6</v>
+      </c>
+      <c r="M9">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="N9">
+        <v>174.38</v>
+      </c>
+      <c r="O9">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>424.01</v>
+      </c>
+      <c r="F10">
+        <v>537.47</v>
+      </c>
+      <c r="G10">
+        <v>385.47</v>
+      </c>
+      <c r="H10">
+        <v>335.35</v>
+      </c>
+      <c r="I10">
+        <v>129.25</v>
+      </c>
+      <c r="J10">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="K10">
+        <v>166.68</v>
+      </c>
+      <c r="L10">
+        <v>289.02999999999997</v>
+      </c>
+      <c r="M10">
+        <v>142.99</v>
+      </c>
+      <c r="N10">
+        <v>306.36</v>
+      </c>
+      <c r="O10">
+        <v>155.38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>533.29999999999995</v>
+      </c>
+      <c r="F11">
+        <v>655.45</v>
+      </c>
+      <c r="G11">
+        <v>494.17</v>
+      </c>
+      <c r="H11">
+        <v>426.27</v>
+      </c>
+      <c r="I11">
+        <v>182.08</v>
+      </c>
+      <c r="J11">
+        <v>50.68</v>
+      </c>
+      <c r="K11">
+        <v>224.83</v>
+      </c>
+      <c r="L11">
+        <v>389.85</v>
+      </c>
+      <c r="M11">
+        <v>199.32</v>
+      </c>
+      <c r="N11">
+        <v>402.35</v>
+      </c>
+      <c r="O11">
+        <v>212.32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>303.02999999999997</v>
+      </c>
+      <c r="F12">
+        <v>392.28</v>
+      </c>
+      <c r="G12">
+        <v>276.72000000000003</v>
+      </c>
+      <c r="H12">
+        <v>240.48</v>
+      </c>
+      <c r="I12">
+        <v>93.75</v>
+      </c>
+      <c r="J12">
+        <v>27.71</v>
+      </c>
+      <c r="K12">
+        <v>116.21</v>
+      </c>
+      <c r="L12">
+        <v>104.22</v>
+      </c>
+      <c r="M12">
+        <v>206.98</v>
+      </c>
+      <c r="N12">
+        <v>226.56</v>
+      </c>
+      <c r="O12">
+        <v>111.96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>408.04</v>
+      </c>
+      <c r="F13">
+        <v>495.04</v>
+      </c>
+      <c r="G13">
+        <v>371.24</v>
+      </c>
+      <c r="H13">
+        <v>323.31</v>
+      </c>
+      <c r="I13">
+        <v>133.01</v>
+      </c>
+      <c r="J13">
+        <v>45.61</v>
+      </c>
+      <c r="K13">
+        <v>161.61000000000001</v>
+      </c>
+      <c r="L13">
+        <v>146.22999999999999</v>
+      </c>
+      <c r="M13">
+        <v>273.08</v>
+      </c>
+      <c r="N13">
+        <v>293.13</v>
+      </c>
+      <c r="O13">
+        <v>156.09</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>544.69000000000005</v>
+      </c>
+      <c r="F14">
+        <v>653.53</v>
+      </c>
+      <c r="G14">
+        <v>502.67</v>
+      </c>
+      <c r="H14">
+        <v>437.97</v>
+      </c>
+      <c r="I14">
+        <v>185.22</v>
+      </c>
+      <c r="J14">
+        <v>55.62</v>
+      </c>
+      <c r="K14">
+        <v>229.14</v>
+      </c>
+      <c r="L14">
+        <v>385.39</v>
+      </c>
+      <c r="M14">
+        <v>203.21</v>
+      </c>
+      <c r="N14">
+        <v>399.48</v>
+      </c>
+      <c r="O14">
+        <v>217.84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>0.13</v>
+      </c>
+      <c r="E15">
+        <v>667.51</v>
+      </c>
+      <c r="F15">
+        <v>770.8</v>
+      </c>
+      <c r="G15">
+        <v>624.80999999999995</v>
+      </c>
+      <c r="H15">
+        <v>549.54</v>
+      </c>
+      <c r="I15">
+        <v>255.16</v>
+      </c>
+      <c r="J15">
+        <v>89.45</v>
+      </c>
+      <c r="K15">
+        <v>308.95</v>
+      </c>
+      <c r="L15">
+        <v>492.93</v>
+      </c>
+      <c r="M15">
+        <v>279.49</v>
+      </c>
+      <c r="N15">
+        <v>504.48</v>
+      </c>
+      <c r="O15">
+        <v>298.62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>652.42999999999995</v>
+      </c>
+      <c r="F16">
+        <v>768.07</v>
+      </c>
+      <c r="G16">
+        <v>613.04</v>
+      </c>
+      <c r="H16">
+        <v>537.67999999999995</v>
+      </c>
+      <c r="I16">
+        <v>250.78</v>
+      </c>
+      <c r="J16">
+        <v>85.03</v>
+      </c>
+      <c r="K16">
+        <v>299.07</v>
+      </c>
+      <c r="L16">
+        <v>501.24</v>
+      </c>
+      <c r="M16">
+        <v>272.48</v>
+      </c>
+      <c r="N16">
+        <v>506.94</v>
+      </c>
+      <c r="O16">
+        <v>287.05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+      <c r="E17">
+        <v>770.98</v>
+      </c>
+      <c r="F17">
+        <v>880.88</v>
+      </c>
+      <c r="G17">
+        <v>731.6</v>
+      </c>
+      <c r="H17">
+        <v>649.65</v>
+      </c>
+      <c r="I17">
+        <v>331.1</v>
+      </c>
+      <c r="J17">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="K17">
+        <v>389.23</v>
+      </c>
+      <c r="L17">
+        <v>617.76</v>
+      </c>
+      <c r="M17">
+        <v>360.39</v>
+      </c>
+      <c r="N17">
+        <v>621.19000000000005</v>
+      </c>
+      <c r="O17">
+        <v>378.83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>2030</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>104.39</v>
+      </c>
+      <c r="F18">
+        <v>207.48</v>
+      </c>
+      <c r="G18">
+        <v>87.61</v>
+      </c>
+      <c r="H18">
+        <v>82.9</v>
+      </c>
+      <c r="I18">
+        <v>11.65</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>14.17</v>
+      </c>
+      <c r="L18">
+        <v>38.03</v>
+      </c>
+      <c r="M18">
+        <v>9.65</v>
+      </c>
+      <c r="N18">
+        <v>87.64</v>
+      </c>
+      <c r="O18">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>201.76</v>
+      </c>
+      <c r="F19">
+        <v>321.36</v>
+      </c>
+      <c r="G19">
+        <v>170.46</v>
+      </c>
+      <c r="H19">
+        <v>163.25</v>
+      </c>
+      <c r="I19">
+        <v>42.94</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>46.35</v>
+      </c>
+      <c r="L19">
+        <v>97.13</v>
+      </c>
+      <c r="M19">
+        <v>40.53</v>
+      </c>
+      <c r="N19">
+        <v>158.59</v>
+      </c>
+      <c r="O19">
+        <v>47.94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>335.1</v>
+      </c>
+      <c r="F20">
+        <v>458.73</v>
+      </c>
+      <c r="G20">
+        <v>287.83</v>
+      </c>
+      <c r="H20">
+        <v>272.25</v>
+      </c>
+      <c r="I20">
+        <v>102.25</v>
+      </c>
+      <c r="J20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K20">
+        <v>108.93</v>
+      </c>
+      <c r="L20">
+        <v>182.48</v>
+      </c>
+      <c r="M20">
+        <v>100.29</v>
+      </c>
+      <c r="N20">
+        <v>250.05</v>
+      </c>
+      <c r="O20">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>396.97</v>
+      </c>
+      <c r="F21">
+        <v>535.29999999999995</v>
+      </c>
+      <c r="G21">
+        <v>355.08</v>
+      </c>
+      <c r="H21">
+        <v>284.54000000000002</v>
+      </c>
+      <c r="I21">
+        <v>90.86</v>
+      </c>
+      <c r="J21">
+        <v>23.86</v>
+      </c>
+      <c r="K21">
+        <v>115.85</v>
+      </c>
+      <c r="L21">
+        <v>195.51</v>
+      </c>
+      <c r="M21">
+        <v>93.63</v>
+      </c>
+      <c r="N21">
+        <v>228.21</v>
+      </c>
+      <c r="O21">
+        <v>117.93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>520.42999999999995</v>
+      </c>
+      <c r="F22">
+        <v>652.07000000000005</v>
+      </c>
+      <c r="G22">
+        <v>472.22</v>
+      </c>
+      <c r="H22">
+        <v>388.47</v>
+      </c>
+      <c r="I22">
+        <v>140.97999999999999</v>
+      </c>
+      <c r="J22">
+        <v>42.07</v>
+      </c>
+      <c r="K22">
+        <v>176.69</v>
+      </c>
+      <c r="L22">
+        <v>274.47000000000003</v>
+      </c>
+      <c r="M22">
+        <v>143.77000000000001</v>
+      </c>
+      <c r="N22">
+        <v>307.07</v>
+      </c>
+      <c r="O22">
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0.23</v>
+      </c>
+      <c r="E23">
+        <v>644.98</v>
+      </c>
+      <c r="F23">
+        <v>770.1</v>
+      </c>
+      <c r="G23">
+        <v>597.55999999999995</v>
+      </c>
+      <c r="H23">
+        <v>503.19</v>
+      </c>
+      <c r="I23">
+        <v>212.1</v>
+      </c>
+      <c r="J23">
+        <v>67.38</v>
+      </c>
+      <c r="K23">
+        <v>268.72000000000003</v>
+      </c>
+      <c r="L23">
+        <v>374.88</v>
+      </c>
+      <c r="M23">
+        <v>216.29</v>
+      </c>
+      <c r="N23">
+        <v>405.87</v>
+      </c>
+      <c r="O23">
+        <v>251.92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>381.23</v>
+      </c>
+      <c r="F24">
+        <v>524.08000000000004</v>
+      </c>
+      <c r="G24">
+        <v>343.09</v>
+      </c>
+      <c r="H24">
+        <v>280.97000000000003</v>
+      </c>
+      <c r="I24">
+        <v>97.89</v>
+      </c>
+      <c r="J24">
+        <v>23.86</v>
+      </c>
+      <c r="K24">
+        <v>114.89</v>
+      </c>
+      <c r="L24">
+        <v>195.12</v>
+      </c>
+      <c r="M24">
+        <v>93.03</v>
+      </c>
+      <c r="N24">
+        <v>228.29</v>
+      </c>
+      <c r="O24">
+        <v>117.06</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>357.32</v>
+      </c>
+      <c r="F25">
+        <v>505.94</v>
+      </c>
+      <c r="G25">
+        <v>325.27999999999997</v>
+      </c>
+      <c r="H25">
+        <v>334.9</v>
+      </c>
+      <c r="I25">
+        <v>182.94</v>
+      </c>
+      <c r="J25">
+        <v>23.86</v>
+      </c>
+      <c r="K25">
+        <v>127.01</v>
+      </c>
+      <c r="L25">
+        <v>243.49</v>
+      </c>
+      <c r="M25">
+        <v>170.19</v>
+      </c>
+      <c r="N25">
+        <v>344.52</v>
+      </c>
+      <c r="O25">
+        <v>144.74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>523.75</v>
+      </c>
+      <c r="F26">
+        <v>712.89</v>
+      </c>
+      <c r="G26">
+        <v>469.91</v>
+      </c>
+      <c r="H26">
+        <v>501.65</v>
+      </c>
+      <c r="I26">
+        <v>280.89</v>
+      </c>
+      <c r="J26">
+        <v>23.86</v>
+      </c>
+      <c r="K26">
+        <v>212.7</v>
+      </c>
+      <c r="L26">
+        <v>370.41</v>
+      </c>
+      <c r="M26">
+        <v>261.58999999999997</v>
+      </c>
+      <c r="N26">
+        <v>497.41</v>
+      </c>
+      <c r="O26">
+        <v>237.21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>503.92</v>
+      </c>
+      <c r="F27">
+        <v>639.79</v>
+      </c>
+      <c r="G27">
+        <v>457.45</v>
+      </c>
+      <c r="H27">
+        <v>383.1</v>
+      </c>
+      <c r="I27">
+        <v>170.64</v>
+      </c>
+      <c r="J27">
+        <v>42.07</v>
+      </c>
+      <c r="K27">
+        <v>176.69</v>
+      </c>
+      <c r="L27">
+        <v>161.07</v>
+      </c>
+      <c r="M27">
+        <v>273.42</v>
+      </c>
+      <c r="N27">
+        <v>307.11</v>
+      </c>
+      <c r="O27">
+        <v>171.17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>0.23</v>
+      </c>
+      <c r="E28">
+        <v>628.92999999999995</v>
+      </c>
+      <c r="F28">
+        <v>758.26</v>
+      </c>
+      <c r="G28">
+        <v>582.6</v>
+      </c>
+      <c r="H28">
+        <v>497.27</v>
+      </c>
+      <c r="I28">
+        <v>270.91000000000003</v>
+      </c>
+      <c r="J28">
+        <v>67.38</v>
+      </c>
+      <c r="K28">
+        <v>268.72000000000003</v>
+      </c>
+      <c r="L28">
+        <v>259.97000000000003</v>
+      </c>
+      <c r="M28">
+        <v>373.56</v>
+      </c>
+      <c r="N28">
+        <v>422.69</v>
+      </c>
+      <c r="O28">
+        <v>254.48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>518.46</v>
+      </c>
+      <c r="F29">
+        <v>658.23</v>
+      </c>
+      <c r="G29">
+        <v>452.19</v>
+      </c>
+      <c r="H29">
+        <v>479.3</v>
+      </c>
+      <c r="I29">
+        <v>297.67</v>
+      </c>
+      <c r="J29">
+        <v>42.07</v>
+      </c>
+      <c r="K29">
+        <v>233.34</v>
+      </c>
+      <c r="L29">
+        <v>370.41</v>
+      </c>
+      <c r="M29">
+        <v>284.39</v>
+      </c>
+      <c r="N29">
+        <v>472.67</v>
+      </c>
+      <c r="O29">
+        <v>257.55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>0.23</v>
+      </c>
+      <c r="E30">
+        <v>681.95</v>
+      </c>
+      <c r="F30">
+        <v>807.56</v>
+      </c>
+      <c r="G30">
+        <v>621.5</v>
+      </c>
+      <c r="H30">
+        <v>630.94000000000005</v>
+      </c>
+      <c r="I30">
+        <v>436.25</v>
+      </c>
+      <c r="J30">
+        <v>67.38</v>
+      </c>
+      <c r="K30">
+        <v>368.79</v>
+      </c>
+      <c r="L30">
+        <v>516.03</v>
+      </c>
+      <c r="M30">
+        <v>421.89</v>
+      </c>
+      <c r="N30">
+        <v>619.14</v>
+      </c>
+      <c r="O30">
+        <v>392.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>704.31</v>
+      </c>
+      <c r="F31">
+        <v>875.64</v>
+      </c>
+      <c r="G31">
+        <v>632.92999999999995</v>
+      </c>
+      <c r="H31">
+        <v>677.4</v>
+      </c>
+      <c r="I31">
+        <v>440.49</v>
+      </c>
+      <c r="J31">
+        <v>42.84</v>
+      </c>
+      <c r="K31">
+        <v>363.01</v>
+      </c>
+      <c r="L31">
+        <v>541.47</v>
+      </c>
+      <c r="M31">
+        <v>421.45</v>
+      </c>
+      <c r="N31">
+        <v>671.18</v>
+      </c>
+      <c r="O31">
+        <v>395.49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32">
+        <v>1.17</v>
+      </c>
+      <c r="E32">
+        <v>880.27</v>
+      </c>
+      <c r="F32">
+        <v>1033.6199999999999</v>
+      </c>
+      <c r="G32">
+        <v>817.72</v>
+      </c>
+      <c r="H32">
+        <v>844.44</v>
+      </c>
+      <c r="I32">
+        <v>620.63</v>
+      </c>
+      <c r="J32">
+        <v>93.9</v>
+      </c>
+      <c r="K32">
+        <v>542.96</v>
+      </c>
+      <c r="L32">
+        <v>732.71</v>
+      </c>
+      <c r="M32">
+        <v>600.87</v>
+      </c>
+      <c r="N32">
+        <v>847.92</v>
+      </c>
+      <c r="O32">
+        <v>575.55999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>56.49</v>
+      </c>
+      <c r="F33">
+        <v>87.62</v>
+      </c>
+      <c r="G33">
+        <v>49.15</v>
+      </c>
+      <c r="H33">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="I33">
+        <v>9.5</v>
+      </c>
+      <c r="J33">
+        <v>1.67</v>
+      </c>
+      <c r="K33">
+        <v>36.36</v>
+      </c>
+      <c r="L33">
+        <v>56.36</v>
+      </c>
+      <c r="M33">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="N33">
+        <v>69.42</v>
+      </c>
+      <c r="O33">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>116.05</v>
+      </c>
+      <c r="F34">
+        <v>152.81</v>
+      </c>
+      <c r="G34">
+        <v>95.08</v>
+      </c>
+      <c r="H34">
+        <v>79.22</v>
+      </c>
+      <c r="I34">
+        <v>23.79</v>
+      </c>
+      <c r="J34">
+        <v>5.71</v>
+      </c>
+      <c r="K34">
+        <v>65.98</v>
+      </c>
+      <c r="L34">
+        <v>98.68</v>
+      </c>
+      <c r="M34">
+        <v>39.89</v>
+      </c>
+      <c r="N34">
+        <v>113.38</v>
+      </c>
+      <c r="O34">
+        <v>50.09</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>209.87</v>
+      </c>
+      <c r="F35">
+        <v>255.73</v>
+      </c>
+      <c r="G35">
+        <v>173.1</v>
+      </c>
+      <c r="H35">
+        <v>140.36000000000001</v>
+      </c>
+      <c r="I35">
+        <v>56.29</v>
+      </c>
+      <c r="J35">
+        <v>13.73</v>
+      </c>
+      <c r="K35">
+        <v>110.5</v>
+      </c>
+      <c r="L35">
+        <v>158.91999999999999</v>
+      </c>
+      <c r="M35">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N35">
+        <v>175.67</v>
+      </c>
+      <c r="O35">
+        <v>89.74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>0.4</v>
+      </c>
+      <c r="E36">
+        <v>595.04</v>
+      </c>
+      <c r="F36">
+        <v>651.53</v>
+      </c>
+      <c r="G36">
+        <v>532.9</v>
+      </c>
+      <c r="H36">
+        <v>437.82</v>
+      </c>
+      <c r="I36">
+        <v>236.14</v>
+      </c>
+      <c r="J36">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="K36">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="L36">
+        <v>440.83</v>
+      </c>
+      <c r="M36">
+        <v>254.56</v>
+      </c>
+      <c r="N36">
+        <v>436.64</v>
+      </c>
+      <c r="O36">
+        <v>284.12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>3.04</v>
+      </c>
+      <c r="E37">
+        <v>744.99</v>
+      </c>
+      <c r="F37">
+        <v>787.82</v>
+      </c>
+      <c r="G37">
+        <v>682.71</v>
+      </c>
+      <c r="H37">
+        <v>581.14</v>
+      </c>
+      <c r="I37">
+        <v>348.01</v>
+      </c>
+      <c r="J37">
+        <v>112.15</v>
+      </c>
+      <c r="K37">
+        <v>436.95</v>
+      </c>
+      <c r="L37">
+        <v>371.54</v>
+      </c>
+      <c r="M37">
+        <v>577.21</v>
+      </c>
+      <c r="N37">
+        <v>560.1</v>
+      </c>
+      <c r="O37">
+        <v>398.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>11.94</v>
+      </c>
+      <c r="E38">
+        <v>895.06</v>
+      </c>
+      <c r="F38">
+        <v>924.87</v>
+      </c>
+      <c r="G38">
+        <v>833.51</v>
+      </c>
+      <c r="H38">
+        <v>727.04</v>
+      </c>
+      <c r="I38">
+        <v>478.23</v>
+      </c>
+      <c r="J38">
+        <v>179.42</v>
+      </c>
+      <c r="K38">
+        <v>567.39</v>
+      </c>
+      <c r="L38">
+        <v>502.38</v>
+      </c>
+      <c r="M38">
+        <v>722.66</v>
+      </c>
+      <c r="N38">
+        <v>696.71</v>
+      </c>
+      <c r="O38">
+        <v>527.27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>0.4</v>
+      </c>
+      <c r="E39">
+        <v>596.27</v>
+      </c>
+      <c r="F39">
+        <v>652.27</v>
+      </c>
+      <c r="G39">
+        <v>533.76</v>
+      </c>
+      <c r="H39">
+        <v>438.16</v>
+      </c>
+      <c r="I39">
+        <v>236.31</v>
+      </c>
+      <c r="J39">
+        <v>66.38</v>
+      </c>
+      <c r="K39">
+        <v>437.52</v>
+      </c>
+      <c r="L39">
+        <v>441.14</v>
+      </c>
+      <c r="M39">
+        <v>254.92</v>
+      </c>
+      <c r="N39">
+        <v>436.78</v>
+      </c>
+      <c r="O39">
+        <v>284.33999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>0.41</v>
+      </c>
+      <c r="E40">
+        <v>596.72</v>
+      </c>
+      <c r="F40">
+        <v>653.02</v>
+      </c>
+      <c r="G40">
+        <v>541.1</v>
+      </c>
+      <c r="H40">
+        <v>462.93</v>
+      </c>
+      <c r="I40">
+        <v>236.48</v>
+      </c>
+      <c r="J40">
+        <v>66.45</v>
+      </c>
+      <c r="K40">
+        <v>318.08</v>
+      </c>
+      <c r="L40">
+        <v>460.91</v>
+      </c>
+      <c r="M40">
+        <v>255.08</v>
+      </c>
+      <c r="N40">
+        <v>461.23</v>
+      </c>
+      <c r="O40">
+        <v>284.64999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>0.41</v>
+      </c>
+      <c r="E41">
+        <v>657.24</v>
+      </c>
+      <c r="F41">
+        <v>743.59</v>
+      </c>
+      <c r="G41">
+        <v>623.27</v>
+      </c>
+      <c r="H41">
+        <v>524.97</v>
+      </c>
+      <c r="I41">
+        <v>236.77</v>
+      </c>
+      <c r="J41">
+        <v>73.77</v>
+      </c>
+      <c r="K41">
+        <v>318.54000000000002</v>
+      </c>
+      <c r="L41">
+        <v>567.35</v>
+      </c>
+      <c r="M41">
+        <v>255.34</v>
+      </c>
+      <c r="N41">
+        <v>555.04</v>
+      </c>
+      <c r="O41">
+        <v>284.75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42">
+        <v>3.06</v>
+      </c>
+      <c r="E42">
+        <v>746.83</v>
+      </c>
+      <c r="F42">
+        <v>789.15</v>
+      </c>
+      <c r="G42">
+        <v>684.17</v>
+      </c>
+      <c r="H42">
+        <v>582.04</v>
+      </c>
+      <c r="I42">
+        <v>349.43</v>
+      </c>
+      <c r="J42">
+        <v>112.3</v>
+      </c>
+      <c r="K42">
+        <v>438.38</v>
+      </c>
+      <c r="L42">
+        <v>577.83000000000004</v>
+      </c>
+      <c r="M42">
+        <v>373.01</v>
+      </c>
+      <c r="N42">
+        <v>560.58000000000004</v>
+      </c>
+      <c r="O42">
+        <v>399.49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>897.09</v>
+      </c>
+      <c r="F43">
+        <v>926.04</v>
+      </c>
+      <c r="G43">
+        <v>835.36</v>
+      </c>
+      <c r="H43">
+        <v>727.47</v>
+      </c>
+      <c r="I43">
+        <v>480.14</v>
+      </c>
+      <c r="J43">
+        <v>179.61</v>
+      </c>
+      <c r="K43">
+        <v>568.91</v>
+      </c>
+      <c r="L43">
+        <v>723.58</v>
+      </c>
+      <c r="M43">
+        <v>504.09</v>
+      </c>
+      <c r="N43">
+        <v>697.46</v>
+      </c>
+      <c r="O43">
+        <v>528.87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>3.07</v>
+      </c>
+      <c r="E44">
+        <v>746.85</v>
+      </c>
+      <c r="F44">
+        <v>789.7</v>
+      </c>
+      <c r="G44">
+        <v>684.62</v>
+      </c>
+      <c r="H44">
+        <v>582.49</v>
+      </c>
+      <c r="I44">
+        <v>349.64</v>
+      </c>
+      <c r="J44">
+        <v>112.42</v>
+      </c>
+      <c r="K44">
+        <v>438.57</v>
+      </c>
+      <c r="L44">
+        <v>578.02</v>
+      </c>
+      <c r="M44">
+        <v>373.27</v>
+      </c>
+      <c r="N44">
+        <v>560.66999999999996</v>
+      </c>
+      <c r="O44">
+        <v>399.79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45">
+        <v>12.04</v>
+      </c>
+      <c r="E45">
+        <v>897.34</v>
+      </c>
+      <c r="F45">
+        <v>926.92</v>
+      </c>
+      <c r="G45">
+        <v>835.95</v>
+      </c>
+      <c r="H45">
+        <v>727.55</v>
+      </c>
+      <c r="I45">
+        <v>479.83</v>
+      </c>
+      <c r="J45">
+        <v>179.77</v>
+      </c>
+      <c r="K45">
+        <v>569.04</v>
+      </c>
+      <c r="L45">
+        <v>723.71</v>
+      </c>
+      <c r="M45">
+        <v>504.21</v>
+      </c>
+      <c r="N45">
+        <v>697.66</v>
+      </c>
+      <c r="O45">
+        <v>529.16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46">
+        <v>3.09</v>
+      </c>
+      <c r="E46">
+        <v>753.21</v>
+      </c>
+      <c r="F46">
+        <v>834.74</v>
+      </c>
+      <c r="G46">
+        <v>720.22</v>
+      </c>
+      <c r="H46">
+        <v>627.98</v>
+      </c>
+      <c r="I46">
+        <v>350.11</v>
+      </c>
+      <c r="J46">
+        <v>112.6</v>
+      </c>
+      <c r="K46">
+        <v>438.82</v>
+      </c>
+      <c r="L46">
+        <v>663.35</v>
+      </c>
+      <c r="M46">
+        <v>373.58</v>
+      </c>
+      <c r="N46">
+        <v>652.91999999999996</v>
+      </c>
+      <c r="O46">
+        <v>399.94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>12.1</v>
+      </c>
+      <c r="E47">
+        <v>898.05</v>
+      </c>
+      <c r="F47">
+        <v>927.4</v>
+      </c>
+      <c r="G47">
+        <v>836.76</v>
+      </c>
+      <c r="H47">
+        <v>744.21</v>
+      </c>
+      <c r="I47">
+        <v>479.96</v>
+      </c>
+      <c r="J47">
+        <v>180.03</v>
+      </c>
+      <c r="K47">
+        <v>569.29999999999995</v>
+      </c>
+      <c r="L47">
+        <v>759.92</v>
+      </c>
+      <c r="M47">
+        <v>504.54</v>
+      </c>
+      <c r="N47">
+        <v>749.3</v>
+      </c>
+      <c r="O47">
+        <v>529.52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>2080</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>96.63</v>
+      </c>
+      <c r="F48">
+        <v>120.34</v>
+      </c>
+      <c r="G48">
+        <v>81.2</v>
+      </c>
+      <c r="H48">
+        <v>70.7</v>
+      </c>
+      <c r="I48">
+        <v>17.61</v>
+      </c>
+      <c r="J48">
+        <v>2.06</v>
+      </c>
+      <c r="K48">
+        <v>55.47</v>
+      </c>
+      <c r="L48">
+        <v>73.87</v>
+      </c>
+      <c r="M48">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="N48">
+        <v>97.59</v>
+      </c>
+      <c r="O48">
+        <v>45.92</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>180.4</v>
+      </c>
+      <c r="F49">
+        <v>203.47</v>
+      </c>
+      <c r="G49">
+        <v>148.13</v>
+      </c>
+      <c r="H49">
+        <v>125.06</v>
+      </c>
+      <c r="I49">
+        <v>47.04</v>
+      </c>
+      <c r="J49">
+        <v>8.25</v>
+      </c>
+      <c r="K49">
+        <v>92.87</v>
+      </c>
+      <c r="L49">
+        <v>124.64</v>
+      </c>
+      <c r="M49">
+        <v>71.88</v>
+      </c>
+      <c r="N49">
+        <v>156.96</v>
+      </c>
+      <c r="O49">
+        <v>80.48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>295.24</v>
+      </c>
+      <c r="F50">
+        <v>312.23</v>
+      </c>
+      <c r="G50">
+        <v>247.5</v>
+      </c>
+      <c r="H50">
+        <v>206.85</v>
+      </c>
+      <c r="I50">
+        <v>95.28</v>
+      </c>
+      <c r="J50">
+        <v>24.39</v>
+      </c>
+      <c r="K50">
+        <v>151.81</v>
+      </c>
+      <c r="L50">
+        <v>195.93</v>
+      </c>
+      <c r="M50">
+        <v>125.36</v>
+      </c>
+      <c r="N50">
+        <v>233.52</v>
+      </c>
+      <c r="O50">
+        <v>136.56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>6.29</v>
+      </c>
+      <c r="E51">
+        <v>688.82</v>
+      </c>
+      <c r="F51">
+        <v>742.88</v>
+      </c>
+      <c r="G51">
+        <v>630.87</v>
+      </c>
+      <c r="H51">
+        <v>550.29</v>
+      </c>
+      <c r="I51">
+        <v>330.23</v>
+      </c>
+      <c r="J51">
+        <v>120.33</v>
+      </c>
+      <c r="K51">
+        <v>395.46</v>
+      </c>
+      <c r="L51">
+        <v>541.17999999999995</v>
+      </c>
+      <c r="M51">
+        <v>352.5</v>
+      </c>
+      <c r="N51">
+        <v>547.82000000000005</v>
+      </c>
+      <c r="O51">
+        <v>368.28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>17.86</v>
+      </c>
+      <c r="E52">
+        <v>834.99</v>
+      </c>
+      <c r="F52">
+        <v>885.02</v>
+      </c>
+      <c r="G52">
+        <v>779.81</v>
+      </c>
+      <c r="H52">
+        <v>693.85</v>
+      </c>
+      <c r="I52">
+        <v>453.55</v>
+      </c>
+      <c r="J52">
+        <v>190.16</v>
+      </c>
+      <c r="K52">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="L52">
+        <v>686.14</v>
+      </c>
+      <c r="M52">
+        <v>481.87</v>
+      </c>
+      <c r="N52">
+        <v>677.21</v>
+      </c>
+      <c r="O52">
+        <v>497.82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>51.02</v>
+      </c>
+      <c r="E53">
+        <v>983.98</v>
+      </c>
+      <c r="F53">
+        <v>1028.81</v>
+      </c>
+      <c r="G53">
+        <v>928.76</v>
+      </c>
+      <c r="H53">
+        <v>842.55</v>
+      </c>
+      <c r="I53">
+        <v>592.27</v>
+      </c>
+      <c r="J53">
+        <v>278.32</v>
+      </c>
+      <c r="K53">
+        <v>664.56</v>
+      </c>
+      <c r="L53">
+        <v>832.48</v>
+      </c>
+      <c r="M53">
+        <v>620.36</v>
+      </c>
+      <c r="N53">
+        <v>824.33</v>
+      </c>
+      <c r="O53">
+        <v>635.61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>6.3</v>
+      </c>
+      <c r="E54">
+        <v>689.41</v>
+      </c>
+      <c r="F54">
+        <v>742.75</v>
+      </c>
+      <c r="G54">
+        <v>631.71</v>
+      </c>
+      <c r="H54">
+        <v>550.77</v>
+      </c>
+      <c r="I54">
+        <v>330.56</v>
+      </c>
+      <c r="J54">
+        <v>120.43</v>
+      </c>
+      <c r="K54">
+        <v>395.57</v>
+      </c>
+      <c r="L54">
+        <v>352.75</v>
+      </c>
+      <c r="M54">
+        <v>541.34</v>
+      </c>
+      <c r="N54">
+        <v>547.86</v>
+      </c>
+      <c r="O54">
+        <v>368.43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>6.31</v>
+      </c>
+      <c r="E55">
+        <v>716.01</v>
+      </c>
+      <c r="F55">
+        <v>806.23</v>
+      </c>
+      <c r="G55">
+        <v>672.68</v>
+      </c>
+      <c r="H55">
+        <v>588.28</v>
+      </c>
+      <c r="I55">
+        <v>330.75</v>
+      </c>
+      <c r="J55">
+        <v>120.5</v>
+      </c>
+      <c r="K55">
+        <v>395.47</v>
+      </c>
+      <c r="L55">
+        <v>352.9</v>
+      </c>
+      <c r="M55">
+        <v>569.14</v>
+      </c>
+      <c r="N55">
+        <v>583.80999999999995</v>
+      </c>
+      <c r="O55">
+        <v>368.83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+      <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>6.33</v>
+      </c>
+      <c r="E56">
+        <v>770.76</v>
+      </c>
+      <c r="F56">
+        <v>874.45</v>
+      </c>
+      <c r="G56">
+        <v>730.5</v>
+      </c>
+      <c r="H56">
+        <v>645.12</v>
+      </c>
+      <c r="I56">
+        <v>343.45</v>
+      </c>
+      <c r="J56">
+        <v>120.62</v>
+      </c>
+      <c r="K56">
+        <v>395.68</v>
+      </c>
+      <c r="L56">
+        <v>378.67</v>
+      </c>
+      <c r="M56">
+        <v>673.35</v>
+      </c>
+      <c r="N56">
+        <v>675.9</v>
+      </c>
+      <c r="O56">
+        <v>370.35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57">
+        <v>17.91</v>
+      </c>
+      <c r="E57">
+        <v>835.95</v>
+      </c>
+      <c r="F57">
+        <v>885.12</v>
+      </c>
+      <c r="G57">
+        <v>780</v>
+      </c>
+      <c r="H57">
+        <v>694.2</v>
+      </c>
+      <c r="I57">
+        <v>453.91</v>
+      </c>
+      <c r="J57">
+        <v>190.31</v>
+      </c>
+      <c r="K57">
+        <v>527.41</v>
+      </c>
+      <c r="L57">
+        <v>686.23</v>
+      </c>
+      <c r="M57">
+        <v>482.26</v>
+      </c>
+      <c r="N57">
+        <v>677.59</v>
+      </c>
+      <c r="O57">
+        <v>498.08</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>51.18</v>
+      </c>
+      <c r="E58">
+        <v>984.45</v>
+      </c>
+      <c r="F58">
+        <v>1029.52</v>
+      </c>
+      <c r="G58">
+        <v>929.88</v>
+      </c>
+      <c r="H58">
+        <v>843.4</v>
+      </c>
+      <c r="I58">
+        <v>592.64</v>
+      </c>
+      <c r="J58">
+        <v>278.48</v>
+      </c>
+      <c r="K58">
+        <v>664.69</v>
+      </c>
+      <c r="L58">
+        <v>832.65</v>
+      </c>
+      <c r="M58">
+        <v>620.72</v>
+      </c>
+      <c r="N58">
+        <v>824.55</v>
+      </c>
+      <c r="O58">
+        <v>635.36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>17.93</v>
+      </c>
+      <c r="E59">
+        <v>843.03</v>
+      </c>
+      <c r="F59">
+        <v>925.19</v>
+      </c>
+      <c r="G59">
+        <v>799.1</v>
+      </c>
+      <c r="H59">
+        <v>729.32</v>
+      </c>
+      <c r="I59">
+        <v>454.12</v>
+      </c>
+      <c r="J59">
+        <v>190.39</v>
+      </c>
+      <c r="K59">
+        <v>527.54</v>
+      </c>
+      <c r="L59">
+        <v>689.2</v>
+      </c>
+      <c r="M59">
+        <v>482.35</v>
+      </c>
+      <c r="N59">
+        <v>702.94</v>
+      </c>
+      <c r="O59">
+        <v>498.34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <v>51.28</v>
+      </c>
+      <c r="E60">
+        <v>985.14</v>
+      </c>
+      <c r="F60">
+        <v>1038.82</v>
+      </c>
+      <c r="G60">
+        <v>930.3</v>
+      </c>
+      <c r="H60">
+        <v>851.24</v>
+      </c>
+      <c r="I60">
+        <v>592.51</v>
+      </c>
+      <c r="J60">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="K60">
+        <v>664.75</v>
+      </c>
+      <c r="L60">
+        <v>832.75</v>
+      </c>
+      <c r="M60">
+        <v>620.86</v>
+      </c>
+      <c r="N60">
+        <v>824.64</v>
+      </c>
+      <c r="O60">
+        <v>635.49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61">
+        <v>17.98</v>
+      </c>
+      <c r="E61">
+        <v>897.15</v>
+      </c>
+      <c r="F61">
+        <v>991.65</v>
+      </c>
+      <c r="G61">
+        <v>855.96</v>
+      </c>
+      <c r="H61">
+        <v>762.87</v>
+      </c>
+      <c r="I61">
+        <v>457.02</v>
+      </c>
+      <c r="J61">
+        <v>190.53</v>
+      </c>
+      <c r="K61">
+        <v>527.96</v>
+      </c>
+      <c r="L61">
+        <v>797.53</v>
+      </c>
+      <c r="M61">
+        <v>492.44</v>
+      </c>
+      <c r="N61">
+        <v>800.04</v>
+      </c>
+      <c r="O61">
+        <v>498.46</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>51.43</v>
+      </c>
+      <c r="E62">
+        <v>1014.15</v>
+      </c>
+      <c r="F62">
+        <v>1102.98</v>
+      </c>
+      <c r="G62">
+        <v>973.57</v>
+      </c>
+      <c r="H62">
+        <v>876.56</v>
+      </c>
+      <c r="I62">
+        <v>592.73</v>
+      </c>
+      <c r="J62">
+        <v>278.79000000000002</v>
+      </c>
+      <c r="K62">
+        <v>664.91</v>
+      </c>
+      <c r="L62">
+        <v>920.77</v>
+      </c>
+      <c r="M62">
+        <v>621.46</v>
+      </c>
+      <c r="N62">
+        <v>916.75</v>
+      </c>
+      <c r="O62">
+        <v>635.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="B18:B32"/>
+    <mergeCell ref="B33:B47"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/SET_Max_dh_scoring.xlsx
+++ b/data/SET_Max_dh_scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Livia/Desktop/Heatscore/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687CA83C-C2B4-8C45-9B30-912DB6C526B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58562F5A-00AF-3A47-9DCD-0450F589EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="-20340" windowWidth="28780" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4740" yWindow="-21100" windowWidth="28780" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clipped Scoring" sheetId="6" r:id="rId1"/>
@@ -3953,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B93B8E-545B-C042-B5CF-3BAB589F30D9}">
   <dimension ref="B1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4333,253 +4333,253 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>424.01</v>
+        <v>303.02999999999997</v>
       </c>
       <c r="F10">
-        <v>537.47</v>
+        <v>392.28</v>
       </c>
       <c r="G10">
-        <v>385.47</v>
+        <v>276.72000000000003</v>
       </c>
       <c r="H10">
-        <v>335.35</v>
+        <v>240.48</v>
       </c>
       <c r="I10">
-        <v>129.25</v>
+        <v>93.75</v>
       </c>
       <c r="J10">
-        <v>32.659999999999997</v>
+        <v>27.71</v>
       </c>
       <c r="K10">
-        <v>166.68</v>
+        <v>116.21</v>
       </c>
       <c r="L10">
-        <v>289.02999999999997</v>
+        <v>104.22</v>
       </c>
       <c r="M10">
-        <v>142.99</v>
+        <v>206.98</v>
       </c>
       <c r="N10">
-        <v>306.36</v>
+        <v>226.56</v>
       </c>
       <c r="O10">
-        <v>155.38</v>
+        <v>111.96</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>533.29999999999995</v>
+        <v>408.04</v>
       </c>
       <c r="F11">
-        <v>655.45</v>
+        <v>495.04</v>
       </c>
       <c r="G11">
-        <v>494.17</v>
+        <v>371.24</v>
       </c>
       <c r="H11">
-        <v>426.27</v>
+        <v>323.31</v>
       </c>
       <c r="I11">
-        <v>182.08</v>
+        <v>133.01</v>
       </c>
       <c r="J11">
-        <v>50.68</v>
+        <v>45.61</v>
       </c>
       <c r="K11">
-        <v>224.83</v>
+        <v>161.61000000000001</v>
       </c>
       <c r="L11">
-        <v>389.85</v>
+        <v>146.22999999999999</v>
       </c>
       <c r="M11">
-        <v>199.32</v>
+        <v>273.08</v>
       </c>
       <c r="N11">
-        <v>402.35</v>
+        <v>293.13</v>
       </c>
       <c r="O11">
-        <v>212.32</v>
+        <v>156.09</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>303.02999999999997</v>
+        <v>424.01</v>
       </c>
       <c r="F12">
-        <v>392.28</v>
+        <v>537.47</v>
       </c>
       <c r="G12">
-        <v>276.72000000000003</v>
+        <v>385.47</v>
       </c>
       <c r="H12">
-        <v>240.48</v>
+        <v>335.35</v>
       </c>
       <c r="I12">
-        <v>93.75</v>
+        <v>129.25</v>
       </c>
       <c r="J12">
-        <v>27.71</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="K12">
-        <v>116.21</v>
+        <v>166.68</v>
       </c>
       <c r="L12">
-        <v>104.22</v>
+        <v>289.02999999999997</v>
       </c>
       <c r="M12">
-        <v>206.98</v>
+        <v>142.99</v>
       </c>
       <c r="N12">
-        <v>226.56</v>
+        <v>306.36</v>
       </c>
       <c r="O12">
-        <v>111.96</v>
+        <v>155.38</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>408.04</v>
+        <v>544.69000000000005</v>
       </c>
       <c r="F13">
-        <v>495.04</v>
+        <v>653.53</v>
       </c>
       <c r="G13">
-        <v>371.24</v>
+        <v>502.67</v>
       </c>
       <c r="H13">
-        <v>323.31</v>
+        <v>437.97</v>
       </c>
       <c r="I13">
-        <v>133.01</v>
+        <v>185.22</v>
       </c>
       <c r="J13">
-        <v>45.61</v>
+        <v>55.62</v>
       </c>
       <c r="K13">
-        <v>161.61000000000001</v>
+        <v>229.14</v>
       </c>
       <c r="L13">
-        <v>146.22999999999999</v>
+        <v>385.39</v>
       </c>
       <c r="M13">
-        <v>273.08</v>
+        <v>203.21</v>
       </c>
       <c r="N13">
-        <v>293.13</v>
+        <v>399.48</v>
       </c>
       <c r="O13">
-        <v>156.09</v>
+        <v>217.84</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E14">
-        <v>544.69000000000005</v>
+        <v>667.51</v>
       </c>
       <c r="F14">
-        <v>653.53</v>
+        <v>770.8</v>
       </c>
       <c r="G14">
-        <v>502.67</v>
+        <v>624.80999999999995</v>
       </c>
       <c r="H14">
-        <v>437.97</v>
+        <v>549.54</v>
       </c>
       <c r="I14">
-        <v>185.22</v>
+        <v>255.16</v>
       </c>
       <c r="J14">
-        <v>55.62</v>
+        <v>89.45</v>
       </c>
       <c r="K14">
-        <v>229.14</v>
+        <v>308.95</v>
       </c>
       <c r="L14">
-        <v>385.39</v>
+        <v>492.93</v>
       </c>
       <c r="M14">
-        <v>203.21</v>
+        <v>279.49</v>
       </c>
       <c r="N14">
-        <v>399.48</v>
+        <v>504.48</v>
       </c>
       <c r="O14">
-        <v>217.84</v>
+        <v>298.62</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>667.51</v>
+        <v>533.29999999999995</v>
       </c>
       <c r="F15">
-        <v>770.8</v>
+        <v>655.45</v>
       </c>
       <c r="G15">
-        <v>624.80999999999995</v>
+        <v>494.17</v>
       </c>
       <c r="H15">
-        <v>549.54</v>
+        <v>426.27</v>
       </c>
       <c r="I15">
-        <v>255.16</v>
+        <v>182.08</v>
       </c>
       <c r="J15">
-        <v>89.45</v>
+        <v>50.68</v>
       </c>
       <c r="K15">
-        <v>308.95</v>
+        <v>224.83</v>
       </c>
       <c r="L15">
-        <v>492.93</v>
+        <v>389.85</v>
       </c>
       <c r="M15">
-        <v>279.49</v>
+        <v>199.32</v>
       </c>
       <c r="N15">
-        <v>504.48</v>
+        <v>402.35</v>
       </c>
       <c r="O15">
-        <v>298.62</v>
+        <v>212.32</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
@@ -4965,253 +4965,253 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>357.32</v>
+        <v>503.92</v>
       </c>
       <c r="F25">
-        <v>505.94</v>
+        <v>639.79</v>
       </c>
       <c r="G25">
-        <v>325.27999999999997</v>
+        <v>457.45</v>
       </c>
       <c r="H25">
-        <v>334.9</v>
+        <v>383.1</v>
       </c>
       <c r="I25">
-        <v>182.94</v>
+        <v>170.64</v>
       </c>
       <c r="J25">
-        <v>23.86</v>
+        <v>42.07</v>
       </c>
       <c r="K25">
-        <v>127.01</v>
+        <v>176.69</v>
       </c>
       <c r="L25">
-        <v>243.49</v>
+        <v>161.07</v>
       </c>
       <c r="M25">
-        <v>170.19</v>
+        <v>273.42</v>
       </c>
       <c r="N25">
-        <v>344.52</v>
+        <v>307.11</v>
       </c>
       <c r="O25">
-        <v>144.74</v>
+        <v>171.17</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E26">
-        <v>523.75</v>
+        <v>628.92999999999995</v>
       </c>
       <c r="F26">
-        <v>712.89</v>
+        <v>758.26</v>
       </c>
       <c r="G26">
-        <v>469.91</v>
+        <v>582.6</v>
       </c>
       <c r="H26">
-        <v>501.65</v>
+        <v>497.27</v>
       </c>
       <c r="I26">
-        <v>280.89</v>
+        <v>270.91000000000003</v>
       </c>
       <c r="J26">
-        <v>23.86</v>
+        <v>67.38</v>
       </c>
       <c r="K26">
-        <v>212.7</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="L26">
-        <v>370.41</v>
+        <v>259.97000000000003</v>
       </c>
       <c r="M26">
-        <v>261.58999999999997</v>
+        <v>373.56</v>
       </c>
       <c r="N26">
-        <v>497.41</v>
+        <v>422.69</v>
       </c>
       <c r="O26">
-        <v>237.21</v>
+        <v>254.48</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>503.92</v>
+        <v>357.32</v>
       </c>
       <c r="F27">
-        <v>639.79</v>
+        <v>505.94</v>
       </c>
       <c r="G27">
-        <v>457.45</v>
+        <v>325.27999999999997</v>
       </c>
       <c r="H27">
-        <v>383.1</v>
+        <v>334.9</v>
       </c>
       <c r="I27">
-        <v>170.64</v>
+        <v>182.94</v>
       </c>
       <c r="J27">
-        <v>42.07</v>
+        <v>23.86</v>
       </c>
       <c r="K27">
-        <v>176.69</v>
+        <v>127.01</v>
       </c>
       <c r="L27">
-        <v>161.07</v>
+        <v>243.49</v>
       </c>
       <c r="M27">
-        <v>273.42</v>
+        <v>170.19</v>
       </c>
       <c r="N27">
-        <v>307.11</v>
+        <v>344.52</v>
       </c>
       <c r="O27">
-        <v>171.17</v>
+        <v>144.74</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>628.92999999999995</v>
+        <v>518.46</v>
       </c>
       <c r="F28">
-        <v>758.26</v>
+        <v>658.23</v>
       </c>
       <c r="G28">
-        <v>582.6</v>
+        <v>452.19</v>
       </c>
       <c r="H28">
-        <v>497.27</v>
+        <v>479.3</v>
       </c>
       <c r="I28">
-        <v>270.91000000000003</v>
+        <v>297.67</v>
       </c>
       <c r="J28">
-        <v>67.38</v>
+        <v>42.07</v>
       </c>
       <c r="K28">
-        <v>268.72000000000003</v>
+        <v>233.34</v>
       </c>
       <c r="L28">
-        <v>259.97000000000003</v>
+        <v>370.41</v>
       </c>
       <c r="M28">
-        <v>373.56</v>
+        <v>284.39</v>
       </c>
       <c r="N28">
-        <v>422.69</v>
+        <v>472.67</v>
       </c>
       <c r="O28">
-        <v>254.48</v>
+        <v>257.55</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E29">
-        <v>518.46</v>
+        <v>681.95</v>
       </c>
       <c r="F29">
-        <v>658.23</v>
+        <v>807.56</v>
       </c>
       <c r="G29">
-        <v>452.19</v>
+        <v>621.5</v>
       </c>
       <c r="H29">
-        <v>479.3</v>
+        <v>630.94000000000005</v>
       </c>
       <c r="I29">
-        <v>297.67</v>
+        <v>436.25</v>
       </c>
       <c r="J29">
-        <v>42.07</v>
+        <v>67.38</v>
       </c>
       <c r="K29">
-        <v>233.34</v>
+        <v>368.79</v>
       </c>
       <c r="L29">
-        <v>370.41</v>
+        <v>516.03</v>
       </c>
       <c r="M29">
-        <v>284.39</v>
+        <v>421.89</v>
       </c>
       <c r="N29">
-        <v>472.67</v>
+        <v>619.14</v>
       </c>
       <c r="O29">
-        <v>257.55</v>
+        <v>392.3</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>681.95</v>
+        <v>523.75</v>
       </c>
       <c r="F30">
-        <v>807.56</v>
+        <v>712.89</v>
       </c>
       <c r="G30">
-        <v>621.5</v>
+        <v>469.91</v>
       </c>
       <c r="H30">
-        <v>630.94000000000005</v>
+        <v>501.65</v>
       </c>
       <c r="I30">
-        <v>436.25</v>
+        <v>280.89</v>
       </c>
       <c r="J30">
-        <v>67.38</v>
+        <v>23.86</v>
       </c>
       <c r="K30">
-        <v>368.79</v>
+        <v>212.7</v>
       </c>
       <c r="L30">
-        <v>516.03</v>
+        <v>370.41</v>
       </c>
       <c r="M30">
-        <v>421.89</v>
+        <v>261.58999999999997</v>
       </c>
       <c r="N30">
-        <v>619.14</v>
+        <v>497.41</v>
       </c>
       <c r="O30">
-        <v>392.3</v>
+        <v>237.21</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
@@ -5597,253 +5597,253 @@
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>0.41</v>
+        <v>3.06</v>
       </c>
       <c r="E40">
-        <v>596.72</v>
+        <v>746.83</v>
       </c>
       <c r="F40">
-        <v>653.02</v>
+        <v>789.15</v>
       </c>
       <c r="G40">
-        <v>541.1</v>
+        <v>684.17</v>
       </c>
       <c r="H40">
-        <v>462.93</v>
+        <v>582.04</v>
       </c>
       <c r="I40">
-        <v>236.48</v>
+        <v>349.43</v>
       </c>
       <c r="J40">
-        <v>66.45</v>
+        <v>112.3</v>
       </c>
       <c r="K40">
-        <v>318.08</v>
+        <v>438.38</v>
       </c>
       <c r="L40">
-        <v>460.91</v>
+        <v>577.83000000000004</v>
       </c>
       <c r="M40">
-        <v>255.08</v>
+        <v>373.01</v>
       </c>
       <c r="N40">
-        <v>461.23</v>
+        <v>560.58000000000004</v>
       </c>
       <c r="O40">
-        <v>284.64999999999998</v>
+        <v>399.49</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>0.41</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>657.24</v>
+        <v>897.09</v>
       </c>
       <c r="F41">
-        <v>743.59</v>
+        <v>926.04</v>
       </c>
       <c r="G41">
-        <v>623.27</v>
+        <v>835.36</v>
       </c>
       <c r="H41">
-        <v>524.97</v>
+        <v>727.47</v>
       </c>
       <c r="I41">
-        <v>236.77</v>
+        <v>480.14</v>
       </c>
       <c r="J41">
-        <v>73.77</v>
+        <v>179.61</v>
       </c>
       <c r="K41">
-        <v>318.54000000000002</v>
+        <v>568.91</v>
       </c>
       <c r="L41">
-        <v>567.35</v>
+        <v>723.58</v>
       </c>
       <c r="M41">
-        <v>255.34</v>
+        <v>504.09</v>
       </c>
       <c r="N41">
-        <v>555.04</v>
+        <v>697.46</v>
       </c>
       <c r="O41">
-        <v>284.75</v>
+        <v>528.87</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>3.06</v>
+        <v>0.41</v>
       </c>
       <c r="E42">
-        <v>746.83</v>
+        <v>596.72</v>
       </c>
       <c r="F42">
-        <v>789.15</v>
+        <v>653.02</v>
       </c>
       <c r="G42">
-        <v>684.17</v>
+        <v>541.1</v>
       </c>
       <c r="H42">
-        <v>582.04</v>
+        <v>462.93</v>
       </c>
       <c r="I42">
-        <v>349.43</v>
+        <v>236.48</v>
       </c>
       <c r="J42">
-        <v>112.3</v>
+        <v>66.45</v>
       </c>
       <c r="K42">
-        <v>438.38</v>
+        <v>318.08</v>
       </c>
       <c r="L42">
-        <v>577.83000000000004</v>
+        <v>460.91</v>
       </c>
       <c r="M42">
-        <v>373.01</v>
+        <v>255.08</v>
       </c>
       <c r="N42">
-        <v>560.58000000000004</v>
+        <v>461.23</v>
       </c>
       <c r="O42">
-        <v>399.49</v>
+        <v>284.64999999999998</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>3.07</v>
       </c>
       <c r="E43">
-        <v>897.09</v>
+        <v>746.85</v>
       </c>
       <c r="F43">
-        <v>926.04</v>
+        <v>789.7</v>
       </c>
       <c r="G43">
-        <v>835.36</v>
+        <v>684.62</v>
       </c>
       <c r="H43">
-        <v>727.47</v>
+        <v>582.49</v>
       </c>
       <c r="I43">
-        <v>480.14</v>
+        <v>349.64</v>
       </c>
       <c r="J43">
-        <v>179.61</v>
+        <v>112.42</v>
       </c>
       <c r="K43">
-        <v>568.91</v>
+        <v>438.57</v>
       </c>
       <c r="L43">
-        <v>723.58</v>
+        <v>578.02</v>
       </c>
       <c r="M43">
-        <v>504.09</v>
+        <v>373.27</v>
       </c>
       <c r="N43">
-        <v>697.46</v>
+        <v>560.66999999999996</v>
       </c>
       <c r="O43">
-        <v>528.87</v>
+        <v>399.79</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44">
-        <v>3.07</v>
+        <v>12.04</v>
       </c>
       <c r="E44">
-        <v>746.85</v>
+        <v>897.34</v>
       </c>
       <c r="F44">
-        <v>789.7</v>
+        <v>926.92</v>
       </c>
       <c r="G44">
-        <v>684.62</v>
+        <v>835.95</v>
       </c>
       <c r="H44">
-        <v>582.49</v>
+        <v>727.55</v>
       </c>
       <c r="I44">
-        <v>349.64</v>
+        <v>479.83</v>
       </c>
       <c r="J44">
-        <v>112.42</v>
+        <v>179.77</v>
       </c>
       <c r="K44">
-        <v>438.57</v>
+        <v>569.04</v>
       </c>
       <c r="L44">
-        <v>578.02</v>
+        <v>723.71</v>
       </c>
       <c r="M44">
-        <v>373.27</v>
+        <v>504.21</v>
       </c>
       <c r="N44">
-        <v>560.66999999999996</v>
+        <v>697.66</v>
       </c>
       <c r="O44">
-        <v>399.79</v>
+        <v>529.16</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>12.04</v>
+        <v>0.41</v>
       </c>
       <c r="E45">
-        <v>897.34</v>
+        <v>657.24</v>
       </c>
       <c r="F45">
-        <v>926.92</v>
+        <v>743.59</v>
       </c>
       <c r="G45">
-        <v>835.95</v>
+        <v>623.27</v>
       </c>
       <c r="H45">
-        <v>727.55</v>
+        <v>524.97</v>
       </c>
       <c r="I45">
-        <v>479.83</v>
+        <v>236.77</v>
       </c>
       <c r="J45">
-        <v>179.77</v>
+        <v>73.77</v>
       </c>
       <c r="K45">
-        <v>569.04</v>
+        <v>318.54000000000002</v>
       </c>
       <c r="L45">
-        <v>723.71</v>
+        <v>567.35</v>
       </c>
       <c r="M45">
-        <v>504.21</v>
+        <v>255.34</v>
       </c>
       <c r="N45">
-        <v>697.66</v>
+        <v>555.04</v>
       </c>
       <c r="O45">
-        <v>529.16</v>
+        <v>284.75</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
@@ -6228,254 +6228,254 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
-      <c r="C55" s="1" t="s">
-        <v>48</v>
+      <c r="C55" t="s">
+        <v>69</v>
       </c>
       <c r="D55">
-        <v>6.31</v>
+        <v>17.91</v>
       </c>
       <c r="E55">
-        <v>716.01</v>
+        <v>835.95</v>
       </c>
       <c r="F55">
-        <v>806.23</v>
+        <v>885.12</v>
       </c>
       <c r="G55">
-        <v>672.68</v>
+        <v>780</v>
       </c>
       <c r="H55">
-        <v>588.28</v>
+        <v>694.2</v>
       </c>
       <c r="I55">
-        <v>330.75</v>
+        <v>453.91</v>
       </c>
       <c r="J55">
-        <v>120.5</v>
+        <v>190.31</v>
       </c>
       <c r="K55">
-        <v>395.47</v>
+        <v>527.41</v>
       </c>
       <c r="L55">
-        <v>352.9</v>
+        <v>686.23</v>
       </c>
       <c r="M55">
-        <v>569.14</v>
+        <v>482.26</v>
       </c>
       <c r="N55">
-        <v>583.80999999999995</v>
+        <v>677.59</v>
       </c>
       <c r="O55">
-        <v>368.83</v>
+        <v>498.08</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
-      <c r="C56" s="1" t="s">
-        <v>49</v>
+      <c r="C56" t="s">
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>6.33</v>
+        <v>51.18</v>
       </c>
       <c r="E56">
-        <v>770.76</v>
+        <v>984.45</v>
       </c>
       <c r="F56">
-        <v>874.45</v>
+        <v>1029.52</v>
       </c>
       <c r="G56">
-        <v>730.5</v>
+        <v>929.88</v>
       </c>
       <c r="H56">
-        <v>645.12</v>
+        <v>843.4</v>
       </c>
       <c r="I56">
-        <v>343.45</v>
+        <v>592.64</v>
       </c>
       <c r="J56">
-        <v>120.62</v>
+        <v>278.48</v>
       </c>
       <c r="K56">
-        <v>395.68</v>
+        <v>664.69</v>
       </c>
       <c r="L56">
-        <v>378.67</v>
+        <v>832.65</v>
       </c>
       <c r="M56">
-        <v>673.35</v>
+        <v>620.72</v>
       </c>
       <c r="N56">
-        <v>675.9</v>
+        <v>824.55</v>
       </c>
       <c r="O56">
-        <v>370.35</v>
+        <v>635.36</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
-      <c r="C57" t="s">
-        <v>69</v>
+      <c r="C57" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D57">
-        <v>17.91</v>
+        <v>6.31</v>
       </c>
       <c r="E57">
-        <v>835.95</v>
+        <v>716.01</v>
       </c>
       <c r="F57">
-        <v>885.12</v>
+        <v>806.23</v>
       </c>
       <c r="G57">
-        <v>780</v>
+        <v>672.68</v>
       </c>
       <c r="H57">
-        <v>694.2</v>
+        <v>588.28</v>
       </c>
       <c r="I57">
-        <v>453.91</v>
+        <v>330.75</v>
       </c>
       <c r="J57">
-        <v>190.31</v>
+        <v>120.5</v>
       </c>
       <c r="K57">
-        <v>527.41</v>
+        <v>395.47</v>
       </c>
       <c r="L57">
-        <v>686.23</v>
+        <v>352.9</v>
       </c>
       <c r="M57">
-        <v>482.26</v>
+        <v>569.14</v>
       </c>
       <c r="N57">
-        <v>677.59</v>
+        <v>583.80999999999995</v>
       </c>
       <c r="O57">
-        <v>498.08</v>
+        <v>368.83</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>51.18</v>
+        <v>17.93</v>
       </c>
       <c r="E58">
-        <v>984.45</v>
+        <v>843.03</v>
       </c>
       <c r="F58">
-        <v>1029.52</v>
+        <v>925.19</v>
       </c>
       <c r="G58">
-        <v>929.88</v>
+        <v>799.1</v>
       </c>
       <c r="H58">
-        <v>843.4</v>
+        <v>729.32</v>
       </c>
       <c r="I58">
-        <v>592.64</v>
+        <v>454.12</v>
       </c>
       <c r="J58">
-        <v>278.48</v>
+        <v>190.39</v>
       </c>
       <c r="K58">
-        <v>664.69</v>
+        <v>527.54</v>
       </c>
       <c r="L58">
-        <v>832.65</v>
+        <v>689.2</v>
       </c>
       <c r="M58">
-        <v>620.72</v>
+        <v>482.35</v>
       </c>
       <c r="N58">
-        <v>824.55</v>
+        <v>702.94</v>
       </c>
       <c r="O58">
-        <v>635.36</v>
+        <v>498.34</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>17.93</v>
+        <v>51.28</v>
       </c>
       <c r="E59">
-        <v>843.03</v>
+        <v>985.14</v>
       </c>
       <c r="F59">
-        <v>925.19</v>
+        <v>1038.82</v>
       </c>
       <c r="G59">
-        <v>799.1</v>
+        <v>930.3</v>
       </c>
       <c r="H59">
-        <v>729.32</v>
+        <v>851.24</v>
       </c>
       <c r="I59">
-        <v>454.12</v>
+        <v>592.51</v>
       </c>
       <c r="J59">
-        <v>190.39</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K59">
-        <v>527.54</v>
+        <v>664.75</v>
       </c>
       <c r="L59">
-        <v>689.2</v>
+        <v>832.75</v>
       </c>
       <c r="M59">
-        <v>482.35</v>
+        <v>620.86</v>
       </c>
       <c r="N59">
-        <v>702.94</v>
+        <v>824.64</v>
       </c>
       <c r="O59">
-        <v>498.34</v>
+        <v>635.49</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
-      <c r="C60" t="s">
-        <v>72</v>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>51.28</v>
+        <v>6.33</v>
       </c>
       <c r="E60">
-        <v>985.14</v>
+        <v>770.76</v>
       </c>
       <c r="F60">
-        <v>1038.82</v>
+        <v>874.45</v>
       </c>
       <c r="G60">
-        <v>930.3</v>
+        <v>730.5</v>
       </c>
       <c r="H60">
-        <v>851.24</v>
+        <v>645.12</v>
       </c>
       <c r="I60">
-        <v>592.51</v>
+        <v>343.45</v>
       </c>
       <c r="J60">
-        <v>278.60000000000002</v>
+        <v>120.62</v>
       </c>
       <c r="K60">
-        <v>664.75</v>
+        <v>395.68</v>
       </c>
       <c r="L60">
-        <v>832.75</v>
+        <v>378.67</v>
       </c>
       <c r="M60">
-        <v>620.86</v>
+        <v>673.35</v>
       </c>
       <c r="N60">
-        <v>824.64</v>
+        <v>675.9</v>
       </c>
       <c r="O60">
-        <v>635.49</v>
+        <v>370.35</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">

--- a/data/SET_Max_dh_scoring.xlsx
+++ b/data/SET_Max_dh_scoring.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Livia/Desktop/Heatscore/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58562F5A-00AF-3A47-9DCD-0450F589EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE316375-0855-BF49-BF82-8F78EF040B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4740" yWindow="-21100" windowWidth="28780" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,13 +772,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -824,43 +824,7 @@
     <cellStyle name="Warnender Text" xfId="40" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="41" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1192,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C5C85-88B9-284B-AFB4-50B950E2E5E6}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="121" zoomScaleNormal="56" workbookViewId="0">
+    <sheetView zoomScale="121" zoomScaleNormal="56" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -1216,26 +1180,26 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1281,7 +1245,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="s">
@@ -1326,7 +1290,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1333,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1376,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +1419,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +1462,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -1541,7 +1505,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>75</v>
       </c>
@@ -1584,7 +1548,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -1627,7 +1591,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1634,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1677,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1720,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +1763,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>56</v>
       </c>
@@ -1842,7 +1806,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>57</v>
       </c>
@@ -1885,7 +1849,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -1927,7 +1891,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>2030</v>
       </c>
       <c r="C18" t="s">
@@ -1971,7 +1935,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +1977,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -2055,7 +2019,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -2097,7 +2061,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2103,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -2181,7 +2145,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -2223,7 +2187,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -2265,7 +2229,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -2307,7 +2271,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -2349,7 +2313,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -2391,7 +2355,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
+      <c r="B29" s="4"/>
       <c r="C29" t="s">
         <v>59</v>
       </c>
@@ -2433,7 +2397,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>60</v>
       </c>
@@ -2475,7 +2439,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>61</v>
       </c>
@@ -2517,7 +2481,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>62</v>
       </c>
@@ -2559,7 +2523,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>2050</v>
       </c>
       <c r="C33" t="s">
@@ -2603,7 +2567,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>35</v>
       </c>
@@ -2645,7 +2609,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
       <c r="C35" t="s">
         <v>36</v>
       </c>
@@ -2687,7 +2651,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2693,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>37</v>
       </c>
@@ -2771,7 +2735,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -2813,7 +2777,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>39</v>
       </c>
@@ -2855,7 +2819,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>40</v>
       </c>
@@ -2897,7 +2861,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
       <c r="C41" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +2903,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>63</v>
       </c>
@@ -2981,7 +2945,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="4"/>
       <c r="C43" t="s">
         <v>64</v>
       </c>
@@ -3024,7 +2988,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="4"/>
       <c r="C44" t="s">
         <v>65</v>
       </c>
@@ -3067,7 +3031,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="4"/>
       <c r="C45" t="s">
         <v>66</v>
       </c>
@@ -3110,7 +3074,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
       <c r="C46" t="s">
         <v>67</v>
       </c>
@@ -3153,7 +3117,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
       <c r="C47" t="s">
         <v>68</v>
       </c>
@@ -3196,7 +3160,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>2080</v>
       </c>
       <c r="C48" t="s">
@@ -3241,7 +3205,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="4"/>
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -3284,7 +3248,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="4"/>
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -3327,7 +3291,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="4"/>
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -3370,7 +3334,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="4"/>
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -3413,7 +3377,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="4"/>
       <c r="C53" t="s">
         <v>46</v>
       </c>
@@ -3456,7 +3420,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="4"/>
       <c r="C54" t="s">
         <v>47</v>
       </c>
@@ -3499,7 +3463,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="4"/>
       <c r="C55" t="s">
         <v>48</v>
       </c>
@@ -3542,7 +3506,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
       <c r="C56" t="s">
         <v>49</v>
       </c>
@@ -3585,7 +3549,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="4"/>
       <c r="C57" t="s">
         <v>69</v>
       </c>
@@ -3628,7 +3592,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="4"/>
       <c r="C58" t="s">
         <v>70</v>
       </c>
@@ -3671,7 +3635,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="4"/>
       <c r="C59" t="s">
         <v>71</v>
       </c>
@@ -3714,7 +3678,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="4"/>
       <c r="C60" t="s">
         <v>72</v>
       </c>
@@ -3757,7 +3721,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="4"/>
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -3800,7 +3764,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
       <c r="C62" t="s">
         <v>74</v>
       </c>
@@ -3953,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B93B8E-545B-C042-B5CF-3BAB589F30D9}">
   <dimension ref="B1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3972,29 +3936,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
@@ -4035,7 +3999,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="s">
@@ -4079,7 +4043,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4121,7 +4085,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -4163,7 +4127,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -4205,7 +4169,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -4247,7 +4211,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -4289,7 +4253,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>75</v>
       </c>
@@ -4331,7 +4295,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -4373,7 +4337,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -4415,7 +4379,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" t="s">
         <v>76</v>
       </c>
@@ -4457,7 +4421,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>55</v>
       </c>
@@ -4499,7 +4463,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>56</v>
       </c>
@@ -4541,7 +4505,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" t="s">
         <v>77</v>
       </c>
@@ -4583,7 +4547,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>57</v>
       </c>
@@ -4625,7 +4589,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -4667,7 +4631,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>2030</v>
       </c>
       <c r="C18" t="s">
@@ -4711,7 +4675,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -4753,7 +4717,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -4795,7 +4759,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -4837,7 +4801,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
@@ -4879,7 +4843,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -4921,7 +4885,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
+      <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -4963,7 +4927,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -5005,7 +4969,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -5047,7 +5011,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -5089,7 +5053,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
       <c r="C28" t="s">
         <v>59</v>
       </c>
@@ -5131,7 +5095,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
+      <c r="B29" s="4"/>
       <c r="C29" t="s">
         <v>60</v>
       </c>
@@ -5173,7 +5137,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -5215,7 +5179,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>61</v>
       </c>
@@ -5257,7 +5221,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>62</v>
       </c>
@@ -5299,7 +5263,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>2050</v>
       </c>
       <c r="C33" t="s">
@@ -5343,7 +5307,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
       <c r="C34" t="s">
         <v>35</v>
       </c>
@@ -5385,7 +5349,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
       <c r="C35" t="s">
         <v>36</v>
       </c>
@@ -5427,7 +5391,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -5469,7 +5433,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
       <c r="C37" t="s">
         <v>37</v>
       </c>
@@ -5511,7 +5475,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -5553,7 +5517,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="4"/>
       <c r="C39" t="s">
         <v>39</v>
       </c>
@@ -5595,7 +5559,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="4"/>
       <c r="C40" t="s">
         <v>63</v>
       </c>
@@ -5637,7 +5601,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
       <c r="C41" t="s">
         <v>64</v>
       </c>
@@ -5679,7 +5643,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>40</v>
       </c>
@@ -5721,7 +5685,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="4"/>
       <c r="C43" t="s">
         <v>65</v>
       </c>
@@ -5763,7 +5727,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="4"/>
       <c r="C44" t="s">
         <v>66</v>
       </c>
@@ -5805,7 +5769,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="4"/>
       <c r="C45" t="s">
         <v>41</v>
       </c>
@@ -5847,7 +5811,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
       <c r="C46" t="s">
         <v>67</v>
       </c>
@@ -5889,7 +5853,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
       <c r="C47" t="s">
         <v>68</v>
       </c>
@@ -5931,7 +5895,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>2080</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5975,7 +5939,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="1" t="s">
         <v>43</v>
       </c>
@@ -6017,7 +5981,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
@@ -6059,7 +6023,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="1" t="s">
         <v>15</v>
       </c>
@@ -6101,7 +6065,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -6143,7 +6107,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -6185,7 +6149,7 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -6227,7 +6191,7 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
+      <c r="B55" s="4"/>
       <c r="C55" t="s">
         <v>69</v>
       </c>
@@ -6269,7 +6233,7 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
       <c r="C56" t="s">
         <v>70</v>
       </c>
@@ -6311,7 +6275,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="1" t="s">
         <v>48</v>
       </c>
@@ -6353,7 +6317,7 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
+      <c r="B58" s="4"/>
       <c r="C58" t="s">
         <v>71</v>
       </c>
@@ -6395,7 +6359,7 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
+      <c r="B59" s="4"/>
       <c r="C59" t="s">
         <v>72</v>
       </c>
@@ -6437,7 +6401,7 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="1" t="s">
         <v>49</v>
       </c>
@@ -6479,7 +6443,7 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
+      <c r="B61" s="4"/>
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -6521,7 +6485,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
       <c r="C62" t="s">
         <v>74</v>
       </c>

--- a/data/SET_Max_dh_scoring.xlsx
+++ b/data/SET_Max_dh_scoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Livia/Desktop/Heatscore/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE316375-0855-BF49-BF82-8F78EF040B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E83BF6-09B4-4848-97A0-7F814C5F65B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4740" yWindow="-21100" windowWidth="28780" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5080" yWindow="-21100" windowWidth="28780" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clipped Scoring" sheetId="6" r:id="rId1"/>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,6 +422,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -766,7 +773,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -779,6 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3918,7 +3926,7 @@
   <dimension ref="B1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4005,40 +4013,40 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>8.15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>8.02</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>8.07</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>3.55</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>4.3499999999999996</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>2.2599999999999998</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>0.37</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <v>9.1</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>5.32</v>
       </c>
     </row>
@@ -4047,40 +4055,40 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>15.92</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>15.87</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>15.13</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>8.9</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>0.98</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>7.73</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>3.53</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>15.96</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>10.24</v>
       </c>
     </row>
@@ -4089,40 +4097,40 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>31.31</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>34.69</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>27.52</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>16.73</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>1.82</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>17.670000000000002</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>15.73</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>9.39</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>26.29</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>18</v>
       </c>
     </row>
@@ -4131,40 +4139,40 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>90.34</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>139.36000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>80.2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>65.16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>20.16</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>2.63</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>25.24</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>51.47</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>22.69</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>65.42</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>22.8</v>
       </c>
     </row>
@@ -4173,40 +4181,40 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
         <v>150.57</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>209.88</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>131.78</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>103.84</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>34.44</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>5.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>41.96</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>80.94</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>38.56</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>99.55</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>39.44</v>
       </c>
     </row>
@@ -4215,40 +4223,40 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
         <v>231.64</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>299.95999999999998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>204.94</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>158.4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>57.32</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>11.17</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>68.510000000000005</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>121.79</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>63.43</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>143.55000000000001</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>66.02</v>
       </c>
     </row>
@@ -4257,40 +4265,40 @@
       <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>217.73</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>299.16000000000003</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>197.09</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>173.69</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>64.790000000000006</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>15.67</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>83.87</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>155.6</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>72.959999999999994</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>174.38</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>79.5</v>
       </c>
     </row>
@@ -4299,40 +4307,40 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>303.02999999999997</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>392.28</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>276.72000000000003</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>240.48</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>93.75</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>27.71</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>116.21</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
+        <v>206.98</v>
+      </c>
+      <c r="M10" s="6">
         <v>104.22</v>
       </c>
-      <c r="M10">
-        <v>206.98</v>
-      </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>226.56</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>111.96</v>
       </c>
     </row>
@@ -4341,40 +4349,40 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>408.04</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>495.04</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>371.24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>323.31</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>133.01</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>45.61</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>161.61000000000001</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
+        <v>273.08</v>
+      </c>
+      <c r="M11" s="6">
         <v>146.22999999999999</v>
       </c>
-      <c r="M11">
-        <v>273.08</v>
-      </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <v>293.13</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>156.09</v>
       </c>
     </row>
@@ -4383,40 +4391,40 @@
       <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>424.01</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>537.47</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>385.47</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>335.35</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>129.25</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>32.659999999999997</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>166.68</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>289.02999999999997</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>142.99</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <v>306.36</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>155.38</v>
       </c>
     </row>
@@ -4425,40 +4433,40 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>544.69000000000005</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>653.53</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>502.67</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>437.97</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>185.22</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>55.62</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>229.14</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>385.39</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>203.21</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <v>399.48</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>217.84</v>
       </c>
     </row>
@@ -4467,40 +4475,40 @@
       <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>0.13</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>667.51</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>770.8</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>624.80999999999995</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>549.54</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>255.16</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>89.45</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>308.95</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>492.93</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>279.49</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>504.48</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>298.62</v>
       </c>
     </row>
@@ -4509,40 +4517,40 @@
       <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
         <v>533.29999999999995</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>655.45</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>494.17</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>426.27</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>182.08</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>50.68</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <v>224.83</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>389.85</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>199.32</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <v>402.35</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>212.32</v>
       </c>
     </row>
@@ -4551,40 +4559,40 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>652.42999999999995</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>768.07</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>613.04</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>537.67999999999995</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>250.78</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>85.03</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>299.07</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>501.24</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>272.48</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>506.94</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>287.05</v>
       </c>
     </row>
@@ -4593,40 +4601,40 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.68</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>770.98</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>880.88</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>731.6</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>649.65</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>331.1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>130.16999999999999</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>389.23</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>617.76</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>360.39</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <v>621.19000000000005</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>378.83</v>
       </c>
     </row>
@@ -4637,40 +4645,40 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>104.39</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>207.48</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>87.61</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>82.9</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>11.65</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
         <v>14.17</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>38.03</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>9.65</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="6">
         <v>87.64</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>12.11</v>
       </c>
     </row>
@@ -4679,40 +4687,40 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>201.76</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>321.36</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>170.46</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>163.25</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>42.94</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
         <v>46.35</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>97.13</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="6">
         <v>40.53</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="6">
         <v>158.59</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <v>47.94</v>
       </c>
     </row>
@@ -4721,40 +4729,40 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
         <v>335.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <v>458.73</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <v>287.83</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <v>272.25</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <v>102.25</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="6">
         <v>108.93</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <v>182.48</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="6">
         <v>100.29</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="6">
         <v>250.05</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>113.85</v>
       </c>
     </row>
@@ -4763,40 +4771,40 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>396.97</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>535.29999999999995</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>355.08</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>284.54000000000002</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>90.86</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>23.86</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>115.85</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>195.51</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>93.63</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <v>228.21</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>117.93</v>
       </c>
     </row>
@@ -4805,40 +4813,40 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>520.42999999999995</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>652.07000000000005</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <v>472.22</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>388.47</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>140.97999999999999</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>42.07</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <v>176.69</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>274.47000000000003</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>143.77000000000001</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="6">
         <v>307.07</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <v>173.3</v>
       </c>
     </row>
@@ -4847,40 +4855,40 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>0.23</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>644.98</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>770.1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <v>597.55999999999995</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>503.19</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>212.1</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <v>67.38</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="6">
         <v>268.72000000000003</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>374.88</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="6">
         <v>216.29</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="6">
         <v>405.87</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="6">
         <v>251.92</v>
       </c>
     </row>
@@ -4889,40 +4897,40 @@
       <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>381.23</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>524.08000000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <v>343.09</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>280.97000000000003</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>97.89</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>23.86</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="6">
         <v>114.89</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>195.12</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>93.03</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="6">
         <v>228.29</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="6">
         <v>117.06</v>
       </c>
     </row>
@@ -4931,40 +4939,40 @@
       <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>503.92</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>639.79</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <v>457.45</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>383.1</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>170.64</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <v>42.07</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="6">
         <v>176.69</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
+        <v>273.42</v>
+      </c>
+      <c r="M25" s="6">
         <v>161.07</v>
       </c>
-      <c r="M25">
-        <v>273.42</v>
-      </c>
-      <c r="N25">
+      <c r="N25" s="6">
         <v>307.11</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="6">
         <v>171.17</v>
       </c>
     </row>
@@ -4973,40 +4981,40 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>0.23</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>628.92999999999995</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>758.26</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <v>582.6</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>497.27</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>270.91000000000003</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="6">
         <v>67.38</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>268.72000000000003</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
+        <v>373.56</v>
+      </c>
+      <c r="M26" s="6">
         <v>259.97000000000003</v>
       </c>
-      <c r="M26">
-        <v>373.56</v>
-      </c>
-      <c r="N26">
+      <c r="N26" s="6">
         <v>422.69</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <v>254.48</v>
       </c>
     </row>
@@ -5015,40 +5023,40 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
         <v>357.32</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>505.94</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <v>325.27999999999997</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>334.9</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>182.94</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>23.86</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="6">
         <v>127.01</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>243.49</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="6">
         <v>170.19</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="6">
         <v>344.52</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>144.74</v>
       </c>
     </row>
@@ -5057,40 +5065,40 @@
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>518.46</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>658.23</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <v>452.19</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>479.3</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
         <v>297.67</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>42.07</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <v>233.34</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>370.41</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>284.39</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="6">
         <v>472.67</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <v>257.55</v>
       </c>
     </row>
@@ -5099,40 +5107,40 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>0.23</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>681.95</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>807.56</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <v>621.5</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>630.94000000000005</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>436.25</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>67.38</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>368.79</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>516.03</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>421.89</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="6">
         <v>619.14</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>392.3</v>
       </c>
     </row>
@@ -5141,40 +5149,40 @@
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
         <v>523.75</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>712.89</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <v>469.91</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>501.65</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>280.89</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>23.86</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="6">
         <v>212.7</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>370.41</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="6">
         <v>261.58999999999997</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="6">
         <v>497.41</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <v>237.21</v>
       </c>
     </row>
@@ -5183,40 +5191,40 @@
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
         <v>704.31</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>875.64</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <v>632.92999999999995</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>677.4</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>440.49</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>42.84</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>363.01</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>541.47</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>421.45</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="6">
         <v>671.18</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <v>395.49</v>
       </c>
     </row>
@@ -5225,40 +5233,40 @@
       <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>1.17</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>880.27</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>1033.6199999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <v>817.72</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>844.44</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
         <v>620.63</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="6">
         <v>93.9</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="6">
         <v>542.96</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>732.71</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="6">
         <v>600.87</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="6">
         <v>847.92</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="6">
         <v>575.55999999999995</v>
       </c>
     </row>
@@ -5269,40 +5277,40 @@
       <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
         <v>56.49</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>87.62</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6">
         <v>49.15</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="6">
         <v>39.119999999999997</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
         <v>9.5</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>1.67</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="6">
         <v>36.36</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>56.36</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="6">
         <v>18.809999999999999</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="6">
         <v>69.42</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="6">
         <v>25.72</v>
       </c>
     </row>
@@ -5311,40 +5319,40 @@
       <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
         <v>116.05</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>152.81</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="6">
         <v>95.08</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="6">
         <v>79.22</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="6">
         <v>23.79</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="6">
         <v>5.71</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="6">
         <v>65.98</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>98.68</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="6">
         <v>39.89</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="6">
         <v>113.38</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="6">
         <v>50.09</v>
       </c>
     </row>
@@ -5353,40 +5361,40 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
         <v>209.87</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <v>255.73</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6">
         <v>173.1</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <v>140.36000000000001</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="6">
         <v>56.29</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="6">
         <v>13.73</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="6">
         <v>110.5</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <v>158.91999999999999</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="6">
         <v>75.099999999999994</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="6">
         <v>175.67</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="6">
         <v>89.74</v>
       </c>
     </row>
@@ -5395,41 +5403,41 @@
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>0.4</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>595.04</v>
       </c>
-      <c r="F36">
-        <v>651.53</v>
-      </c>
-      <c r="G36">
-        <v>532.9</v>
-      </c>
-      <c r="H36">
-        <v>437.82</v>
-      </c>
-      <c r="I36">
-        <v>236.14</v>
-      </c>
-      <c r="J36">
+      <c r="F36" s="6">
+        <v>651.04999999999995</v>
+      </c>
+      <c r="G36" s="6">
+        <v>532.11</v>
+      </c>
+      <c r="H36" s="6">
+        <v>437.57</v>
+      </c>
+      <c r="I36" s="6">
+        <v>236.11</v>
+      </c>
+      <c r="J36" s="6">
         <v>66.290000000000006</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="6">
         <v>317.39999999999998</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="6">
         <v>440.83</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="6">
         <v>254.56</v>
       </c>
-      <c r="N36">
-        <v>436.64</v>
-      </c>
-      <c r="O36">
-        <v>284.12</v>
+      <c r="N36" s="6">
+        <v>436.59</v>
+      </c>
+      <c r="O36" s="6">
+        <v>283.93</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -5437,40 +5445,40 @@
       <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>3.04</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>744.99</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>787.82</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6">
         <v>682.71</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="6">
         <v>581.14</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="6">
         <v>348.01</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="6">
         <v>112.15</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="6">
         <v>436.95</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
+        <v>577.21</v>
+      </c>
+      <c r="M37" s="6">
         <v>371.54</v>
       </c>
-      <c r="M37">
-        <v>577.21</v>
-      </c>
-      <c r="N37">
+      <c r="N37" s="6">
         <v>560.1</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="6">
         <v>398.05</v>
       </c>
     </row>
@@ -5479,40 +5487,40 @@
       <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>11.94</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>895.06</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>924.87</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="6">
         <v>833.51</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="6">
         <v>727.04</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="6">
         <v>478.23</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="6">
         <v>179.42</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="6">
         <v>567.39</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
+        <v>722.66</v>
+      </c>
+      <c r="M38" s="6">
         <v>502.38</v>
       </c>
-      <c r="M38">
-        <v>722.66</v>
-      </c>
-      <c r="N38">
+      <c r="N38" s="6">
         <v>696.71</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="6">
         <v>527.27</v>
       </c>
     </row>
@@ -5521,41 +5529,41 @@
       <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D39">
-        <v>0.4</v>
-      </c>
-      <c r="E39">
-        <v>596.27</v>
-      </c>
-      <c r="F39">
-        <v>652.27</v>
-      </c>
-      <c r="G39">
-        <v>533.76</v>
-      </c>
-      <c r="H39">
-        <v>438.16</v>
-      </c>
-      <c r="I39">
-        <v>236.31</v>
-      </c>
-      <c r="J39">
-        <v>66.38</v>
-      </c>
-      <c r="K39">
-        <v>437.52</v>
-      </c>
-      <c r="L39">
-        <v>441.14</v>
-      </c>
-      <c r="M39">
-        <v>254.92</v>
-      </c>
-      <c r="N39">
-        <v>436.78</v>
-      </c>
-      <c r="O39">
-        <v>284.33999999999997</v>
+      <c r="D39" s="6">
+        <v>22.75</v>
+      </c>
+      <c r="E39" s="6">
+        <v>742.39</v>
+      </c>
+      <c r="F39" s="6">
+        <v>775.49</v>
+      </c>
+      <c r="G39" s="6">
+        <v>680.1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>581.32000000000005</v>
+      </c>
+      <c r="I39" s="6">
+        <v>396.44</v>
+      </c>
+      <c r="J39" s="6">
+        <v>170.81</v>
+      </c>
+      <c r="K39" s="6">
+        <v>478.43</v>
+      </c>
+      <c r="L39" s="6">
+        <v>585.23</v>
+      </c>
+      <c r="M39" s="6">
+        <v>433.56</v>
+      </c>
+      <c r="N39" s="6">
+        <v>592.49</v>
+      </c>
+      <c r="O39" s="6">
+        <v>451.89</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
@@ -5563,41 +5571,41 @@
       <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="D40">
-        <v>3.06</v>
-      </c>
-      <c r="E40">
-        <v>746.83</v>
-      </c>
-      <c r="F40">
-        <v>789.15</v>
-      </c>
-      <c r="G40">
-        <v>684.17</v>
-      </c>
-      <c r="H40">
-        <v>582.04</v>
-      </c>
-      <c r="I40">
-        <v>349.43</v>
-      </c>
-      <c r="J40">
-        <v>112.3</v>
-      </c>
-      <c r="K40">
-        <v>438.38</v>
-      </c>
-      <c r="L40">
-        <v>577.83000000000004</v>
-      </c>
-      <c r="M40">
-        <v>373.01</v>
-      </c>
-      <c r="N40">
-        <v>560.58000000000004</v>
-      </c>
-      <c r="O40">
-        <v>399.49</v>
+      <c r="D40" s="6">
+        <v>60.09</v>
+      </c>
+      <c r="E40" s="6">
+        <v>900.96</v>
+      </c>
+      <c r="F40" s="6">
+        <v>922.51</v>
+      </c>
+      <c r="G40" s="6">
+        <v>840.87</v>
+      </c>
+      <c r="H40" s="6">
+        <v>732.84</v>
+      </c>
+      <c r="I40" s="6">
+        <v>542.54</v>
+      </c>
+      <c r="J40" s="6">
+        <v>258.51</v>
+      </c>
+      <c r="K40" s="6">
+        <v>605.35</v>
+      </c>
+      <c r="L40" s="6">
+        <v>735.6</v>
+      </c>
+      <c r="M40" s="6">
+        <v>560.98</v>
+      </c>
+      <c r="N40" s="6">
+        <v>728.82</v>
+      </c>
+      <c r="O40" s="6">
+        <v>575.05999999999995</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
@@ -5605,41 +5613,41 @@
       <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D41">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>897.09</v>
-      </c>
-      <c r="F41">
-        <v>926.04</v>
-      </c>
-      <c r="G41">
-        <v>835.36</v>
-      </c>
-      <c r="H41">
-        <v>727.47</v>
-      </c>
-      <c r="I41">
-        <v>480.14</v>
-      </c>
-      <c r="J41">
-        <v>179.61</v>
-      </c>
-      <c r="K41">
-        <v>568.91</v>
-      </c>
-      <c r="L41">
-        <v>723.58</v>
-      </c>
-      <c r="M41">
-        <v>504.09</v>
-      </c>
-      <c r="N41">
-        <v>697.46</v>
-      </c>
-      <c r="O41">
-        <v>528.87</v>
+      <c r="D41" s="6">
+        <v>118.75</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1061.08</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1071.3399999999999</v>
+      </c>
+      <c r="G41" s="6">
+        <v>999.73</v>
+      </c>
+      <c r="H41" s="6">
+        <v>889.85</v>
+      </c>
+      <c r="I41" s="6">
+        <v>686.94</v>
+      </c>
+      <c r="J41" s="6">
+        <v>361.52</v>
+      </c>
+      <c r="K41" s="6">
+        <v>745.44</v>
+      </c>
+      <c r="L41" s="6">
+        <v>884.43</v>
+      </c>
+      <c r="M41" s="6">
+        <v>697.68</v>
+      </c>
+      <c r="N41" s="6">
+        <v>877.56</v>
+      </c>
+      <c r="O41" s="6">
+        <v>712.89</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
@@ -5647,41 +5655,41 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42">
-        <v>0.41</v>
-      </c>
-      <c r="E42">
-        <v>596.72</v>
-      </c>
-      <c r="F42">
-        <v>653.02</v>
-      </c>
-      <c r="G42">
-        <v>541.1</v>
-      </c>
-      <c r="H42">
-        <v>462.93</v>
-      </c>
-      <c r="I42">
-        <v>236.48</v>
-      </c>
-      <c r="J42">
-        <v>66.45</v>
-      </c>
-      <c r="K42">
-        <v>318.08</v>
-      </c>
-      <c r="L42">
-        <v>460.91</v>
-      </c>
-      <c r="M42">
-        <v>255.08</v>
-      </c>
-      <c r="N42">
-        <v>461.23</v>
-      </c>
-      <c r="O42">
-        <v>284.64999999999998</v>
+      <c r="D42" s="6">
+        <v>75.3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1041.1099999999999</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1024.6500000000001</v>
+      </c>
+      <c r="G42" s="6">
+        <v>982.16</v>
+      </c>
+      <c r="H42" s="6">
+        <v>853.49</v>
+      </c>
+      <c r="I42" s="6">
+        <v>671.11</v>
+      </c>
+      <c r="J42" s="6">
+        <v>343.99</v>
+      </c>
+      <c r="K42" s="6">
+        <v>763.93</v>
+      </c>
+      <c r="L42" s="6">
+        <v>847.1</v>
+      </c>
+      <c r="M42" s="6">
+        <v>732.32</v>
+      </c>
+      <c r="N42" s="6">
+        <v>865.12</v>
+      </c>
+      <c r="O42" s="6">
+        <v>742.63</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
@@ -5689,41 +5697,41 @@
       <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D43">
-        <v>3.07</v>
-      </c>
-      <c r="E43">
-        <v>746.85</v>
-      </c>
-      <c r="F43">
-        <v>789.7</v>
-      </c>
-      <c r="G43">
-        <v>684.62</v>
-      </c>
-      <c r="H43">
-        <v>582.49</v>
-      </c>
-      <c r="I43">
-        <v>349.64</v>
-      </c>
-      <c r="J43">
-        <v>112.42</v>
-      </c>
-      <c r="K43">
-        <v>438.57</v>
-      </c>
-      <c r="L43">
-        <v>578.02</v>
-      </c>
-      <c r="M43">
-        <v>373.27</v>
-      </c>
-      <c r="N43">
-        <v>560.66999999999996</v>
-      </c>
-      <c r="O43">
-        <v>399.79</v>
+      <c r="D43" s="6">
+        <v>167.17</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1198.6199999999999</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1182.51</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1145.25</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1018.68</v>
+      </c>
+      <c r="I43" s="6">
+        <v>854.25</v>
+      </c>
+      <c r="J43" s="6">
+        <v>487.58</v>
+      </c>
+      <c r="K43" s="6">
+        <v>904.43</v>
+      </c>
+      <c r="L43" s="6">
+        <v>1009.18</v>
+      </c>
+      <c r="M43" s="6">
+        <v>883.15</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1023.31</v>
+      </c>
+      <c r="O43" s="6">
+        <v>877.73</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5731,41 +5739,41 @@
       <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="D44">
-        <v>12.04</v>
-      </c>
-      <c r="E44">
-        <v>897.34</v>
-      </c>
-      <c r="F44">
-        <v>926.92</v>
-      </c>
-      <c r="G44">
-        <v>835.95</v>
-      </c>
-      <c r="H44">
-        <v>727.55</v>
-      </c>
-      <c r="I44">
-        <v>479.83</v>
-      </c>
-      <c r="J44">
-        <v>179.77</v>
-      </c>
-      <c r="K44">
-        <v>569.04</v>
-      </c>
-      <c r="L44">
-        <v>723.71</v>
-      </c>
-      <c r="M44">
-        <v>504.21</v>
-      </c>
-      <c r="N44">
-        <v>697.66</v>
-      </c>
-      <c r="O44">
-        <v>529.16</v>
+      <c r="D44" s="6">
+        <v>290.88</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1367.11</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1345.69</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1308.27</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1185.77</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1028.9100000000001</v>
+      </c>
+      <c r="J44" s="6">
+        <v>647.49</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1058.49</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1167.43</v>
+      </c>
+      <c r="M44" s="6">
+        <v>1035.0899999999999</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1188.78</v>
+      </c>
+      <c r="O44" s="6">
+        <v>1030.8499999999999</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
@@ -5773,41 +5781,41 @@
       <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="D45">
-        <v>0.41</v>
-      </c>
-      <c r="E45">
-        <v>657.24</v>
-      </c>
-      <c r="F45">
-        <v>743.59</v>
-      </c>
-      <c r="G45">
-        <v>623.27</v>
-      </c>
-      <c r="H45">
-        <v>524.97</v>
-      </c>
-      <c r="I45">
-        <v>236.77</v>
-      </c>
-      <c r="J45">
-        <v>73.77</v>
-      </c>
-      <c r="K45">
-        <v>318.54000000000002</v>
-      </c>
-      <c r="L45">
-        <v>567.35</v>
-      </c>
-      <c r="M45">
-        <v>255.34</v>
-      </c>
-      <c r="N45">
-        <v>555.04</v>
-      </c>
-      <c r="O45">
-        <v>284.75</v>
+      <c r="D45" s="6">
+        <v>141.58000000000001</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1253.1199999999999</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1216.1099999999999</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1204.17</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1078.05</v>
+      </c>
+      <c r="I45" s="6">
+        <v>912.86</v>
+      </c>
+      <c r="J45" s="6">
+        <v>530.88</v>
+      </c>
+      <c r="K45" s="6">
+        <v>986.05</v>
+      </c>
+      <c r="L45" s="6">
+        <v>1100.71</v>
+      </c>
+      <c r="M45" s="6">
+        <v>959.58</v>
+      </c>
+      <c r="N45" s="6">
+        <v>1106.96</v>
+      </c>
+      <c r="O45" s="6">
+        <v>969.13</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
@@ -5815,41 +5823,41 @@
       <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="D46">
-        <v>3.09</v>
-      </c>
-      <c r="E46">
-        <v>753.21</v>
-      </c>
-      <c r="F46">
-        <v>834.74</v>
-      </c>
-      <c r="G46">
-        <v>720.22</v>
-      </c>
-      <c r="H46">
-        <v>627.98</v>
-      </c>
-      <c r="I46">
-        <v>350.11</v>
-      </c>
-      <c r="J46">
-        <v>112.6</v>
-      </c>
-      <c r="K46">
-        <v>438.82</v>
-      </c>
-      <c r="L46">
-        <v>663.35</v>
-      </c>
-      <c r="M46">
-        <v>373.58</v>
-      </c>
-      <c r="N46">
-        <v>652.91999999999996</v>
-      </c>
-      <c r="O46">
-        <v>399.94</v>
+      <c r="D46" s="6">
+        <v>294.51</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1398.19</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1361.35</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1350.75</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1229.04</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1084.71</v>
+      </c>
+      <c r="J46" s="6">
+        <v>716.77</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1114.17</v>
+      </c>
+      <c r="L46" s="6">
+        <v>1248.52</v>
+      </c>
+      <c r="M46" s="6">
+        <v>1090.3900000000001</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1263.3499999999999</v>
+      </c>
+      <c r="O46" s="6">
+        <v>1091.48</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
@@ -5857,41 +5865,41 @@
       <c r="C47" t="s">
         <v>68</v>
       </c>
-      <c r="D47">
-        <v>12.1</v>
-      </c>
-      <c r="E47">
-        <v>898.05</v>
-      </c>
-      <c r="F47">
-        <v>927.4</v>
-      </c>
-      <c r="G47">
-        <v>836.76</v>
-      </c>
-      <c r="H47">
-        <v>744.21</v>
-      </c>
-      <c r="I47">
-        <v>479.96</v>
-      </c>
-      <c r="J47">
-        <v>180.03</v>
-      </c>
-      <c r="K47">
-        <v>569.29999999999995</v>
-      </c>
-      <c r="L47">
-        <v>759.92</v>
-      </c>
-      <c r="M47">
-        <v>504.54</v>
-      </c>
-      <c r="N47">
-        <v>749.3</v>
-      </c>
-      <c r="O47">
-        <v>529.52</v>
+      <c r="D47" s="6">
+        <v>483.83</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1563.64</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1523.15</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1509.07</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1381.76</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1231.19</v>
+      </c>
+      <c r="J47" s="6">
+        <v>909.55</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1259.1300000000001</v>
+      </c>
+      <c r="L47" s="6">
+        <v>1390.12</v>
+      </c>
+      <c r="M47" s="6">
+        <v>1232.9000000000001</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1419.87</v>
+      </c>
+      <c r="O47" s="6">
+        <v>1235.5999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
@@ -5901,40 +5909,40 @@
       <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
         <v>96.63</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>120.34</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <v>81.2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="6">
         <v>70.7</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="6">
         <v>17.61</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="6">
         <v>2.06</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="6">
         <v>55.47</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="6">
         <v>73.87</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="6">
         <v>40.090000000000003</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="6">
         <v>97.59</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="6">
         <v>45.92</v>
       </c>
     </row>
@@ -5943,40 +5951,40 @@
       <c r="C49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
         <v>180.4</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <v>203.47</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="6">
         <v>148.13</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="6">
         <v>125.06</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="6">
         <v>47.04</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="6">
         <v>8.25</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="6">
         <v>92.87</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="6">
         <v>124.64</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="6">
         <v>71.88</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="6">
         <v>156.96</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="6">
         <v>80.48</v>
       </c>
     </row>
@@ -5985,40 +5993,40 @@
       <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
         <v>295.24</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6">
         <v>312.23</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="6">
         <v>247.5</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="6">
         <v>206.85</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="6">
         <v>95.28</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="6">
         <v>24.39</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="6">
         <v>151.81</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="6">
         <v>195.93</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="6">
         <v>125.36</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="6">
         <v>233.52</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="6">
         <v>136.56</v>
       </c>
     </row>
@@ -6027,40 +6035,40 @@
       <c r="C51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>6.29</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="6">
         <v>688.82</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <v>742.88</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="6">
         <v>630.87</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="6">
         <v>550.29</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="6">
         <v>330.23</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="6">
         <v>120.33</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="6">
         <v>395.46</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="6">
         <v>541.17999999999995</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="6">
         <v>352.5</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="6">
         <v>547.82000000000005</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="6">
         <v>368.28</v>
       </c>
     </row>
@@ -6069,40 +6077,40 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>17.86</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
         <v>834.99</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <v>885.02</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="6">
         <v>779.81</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="6">
         <v>693.85</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="6">
         <v>453.55</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="6">
         <v>190.16</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="6">
         <v>527.17999999999995</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="6">
         <v>686.14</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="6">
         <v>481.87</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="6">
         <v>677.21</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="6">
         <v>497.82</v>
       </c>
     </row>
@@ -6111,40 +6119,40 @@
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>51.02</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <v>983.98</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>1028.81</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="6">
         <v>928.76</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <v>842.55</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="6">
         <v>592.27</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="6">
         <v>278.32</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="6">
         <v>664.56</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="6">
         <v>832.48</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="6">
         <v>620.36</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="6">
         <v>824.33</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="6">
         <v>635.61</v>
       </c>
     </row>
@@ -6153,41 +6161,41 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54">
-        <v>6.3</v>
-      </c>
-      <c r="E54">
-        <v>689.41</v>
-      </c>
-      <c r="F54">
-        <v>742.75</v>
-      </c>
-      <c r="G54">
-        <v>631.71</v>
-      </c>
-      <c r="H54">
-        <v>550.77</v>
-      </c>
-      <c r="I54">
-        <v>330.56</v>
-      </c>
-      <c r="J54">
-        <v>120.43</v>
-      </c>
-      <c r="K54">
-        <v>395.57</v>
-      </c>
-      <c r="L54">
-        <v>352.75</v>
-      </c>
-      <c r="M54">
-        <v>541.34</v>
-      </c>
-      <c r="N54">
-        <v>547.86</v>
-      </c>
-      <c r="O54">
-        <v>368.43</v>
+      <c r="D54" s="6">
+        <v>88.94</v>
+      </c>
+      <c r="E54" s="6">
+        <v>901.29</v>
+      </c>
+      <c r="F54" s="6">
+        <v>939.75</v>
+      </c>
+      <c r="G54" s="6">
+        <v>842.92</v>
+      </c>
+      <c r="H54" s="6">
+        <v>755.12</v>
+      </c>
+      <c r="I54" s="6">
+        <v>538.23</v>
+      </c>
+      <c r="J54" s="6">
+        <v>296.14999999999998</v>
+      </c>
+      <c r="K54" s="6">
+        <v>603.73</v>
+      </c>
+      <c r="L54" s="6">
+        <v>744.57</v>
+      </c>
+      <c r="M54" s="6">
+        <v>558.85</v>
+      </c>
+      <c r="N54" s="6">
+        <v>751.78</v>
+      </c>
+      <c r="O54" s="6">
+        <v>575.27</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -6195,41 +6203,41 @@
       <c r="C55" t="s">
         <v>69</v>
       </c>
-      <c r="D55">
-        <v>17.91</v>
-      </c>
-      <c r="E55">
-        <v>835.95</v>
-      </c>
-      <c r="F55">
-        <v>885.12</v>
-      </c>
-      <c r="G55">
-        <v>780</v>
-      </c>
-      <c r="H55">
-        <v>694.2</v>
-      </c>
-      <c r="I55">
-        <v>453.91</v>
-      </c>
-      <c r="J55">
-        <v>190.31</v>
-      </c>
-      <c r="K55">
-        <v>527.41</v>
-      </c>
-      <c r="L55">
-        <v>686.23</v>
-      </c>
-      <c r="M55">
-        <v>482.26</v>
-      </c>
-      <c r="N55">
-        <v>677.59</v>
-      </c>
-      <c r="O55">
-        <v>498.08</v>
+      <c r="D55" s="6">
+        <v>143.83000000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1056.49</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1089.99</v>
+      </c>
+      <c r="G55" s="6">
+        <v>999.26</v>
+      </c>
+      <c r="H55" s="6">
+        <v>904.23</v>
+      </c>
+      <c r="I55" s="6">
+        <v>669.38</v>
+      </c>
+      <c r="J55" s="6">
+        <v>395.4</v>
+      </c>
+      <c r="K55" s="6">
+        <v>744.56</v>
+      </c>
+      <c r="L55" s="6">
+        <v>894.52</v>
+      </c>
+      <c r="M55" s="6">
+        <v>693.24</v>
+      </c>
+      <c r="N55" s="6">
+        <v>891.97</v>
+      </c>
+      <c r="O55" s="6">
+        <v>713.74</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
@@ -6237,41 +6245,41 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D56">
-        <v>51.18</v>
-      </c>
-      <c r="E56">
-        <v>984.45</v>
-      </c>
-      <c r="F56">
-        <v>1029.52</v>
-      </c>
-      <c r="G56">
-        <v>929.88</v>
-      </c>
-      <c r="H56">
-        <v>843.4</v>
-      </c>
-      <c r="I56">
-        <v>592.64</v>
-      </c>
-      <c r="J56">
-        <v>278.48</v>
-      </c>
-      <c r="K56">
-        <v>664.69</v>
-      </c>
-      <c r="L56">
-        <v>832.65</v>
-      </c>
-      <c r="M56">
-        <v>620.72</v>
-      </c>
-      <c r="N56">
-        <v>824.55</v>
-      </c>
-      <c r="O56">
-        <v>635.36</v>
+      <c r="D56" s="6">
+        <v>218.83</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1219.23</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1246.81</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1160.28</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1062.75</v>
+      </c>
+      <c r="I56" s="6">
+        <v>814.62</v>
+      </c>
+      <c r="J56" s="6">
+        <v>504.58</v>
+      </c>
+      <c r="K56" s="6">
+        <v>889.57</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1050.08</v>
+      </c>
+      <c r="M56" s="6">
+        <v>838.93</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1049.96</v>
+      </c>
+      <c r="O56" s="6">
+        <v>858.85</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
@@ -6279,41 +6287,41 @@
       <c r="C57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D57">
-        <v>6.31</v>
-      </c>
-      <c r="E57">
-        <v>716.01</v>
-      </c>
-      <c r="F57">
-        <v>806.23</v>
-      </c>
-      <c r="G57">
-        <v>672.68</v>
-      </c>
-      <c r="H57">
-        <v>588.28</v>
-      </c>
-      <c r="I57">
-        <v>330.75</v>
-      </c>
-      <c r="J57">
-        <v>120.5</v>
-      </c>
-      <c r="K57">
-        <v>395.47</v>
-      </c>
-      <c r="L57">
-        <v>352.9</v>
-      </c>
-      <c r="M57">
-        <v>569.14</v>
-      </c>
-      <c r="N57">
-        <v>583.80999999999995</v>
-      </c>
-      <c r="O57">
-        <v>368.83</v>
+      <c r="D57" s="6">
+        <v>234.65</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1327.53</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1347.54</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1281.3699999999999</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1166.1199999999999</v>
+      </c>
+      <c r="I57" s="6">
+        <v>926.32</v>
+      </c>
+      <c r="J57" s="6">
+        <v>587.87</v>
+      </c>
+      <c r="K57" s="6">
+        <v>988.36</v>
+      </c>
+      <c r="L57" s="6">
+        <v>1119.6400000000001</v>
+      </c>
+      <c r="M57" s="6">
+        <v>942.85</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1120.78</v>
+      </c>
+      <c r="O57" s="6">
+        <v>957.21</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
@@ -6321,41 +6329,41 @@
       <c r="C58" t="s">
         <v>71</v>
       </c>
-      <c r="D58">
-        <v>17.93</v>
-      </c>
-      <c r="E58">
-        <v>843.03</v>
-      </c>
-      <c r="F58">
-        <v>925.19</v>
-      </c>
-      <c r="G58">
-        <v>799.1</v>
-      </c>
-      <c r="H58">
-        <v>729.32</v>
-      </c>
-      <c r="I58">
-        <v>454.12</v>
-      </c>
-      <c r="J58">
-        <v>190.39</v>
-      </c>
-      <c r="K58">
-        <v>527.54</v>
-      </c>
-      <c r="L58">
-        <v>689.2</v>
-      </c>
-      <c r="M58">
-        <v>482.35</v>
-      </c>
-      <c r="N58">
-        <v>702.94</v>
-      </c>
-      <c r="O58">
-        <v>498.34</v>
+      <c r="D58" s="6">
+        <v>358.51</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1474.79</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1490.78</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1426.24</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1321.46</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1074.5</v>
+      </c>
+      <c r="J58" s="6">
+        <v>743.13</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1140.01</v>
+      </c>
+      <c r="L58" s="6">
+        <v>1281.99</v>
+      </c>
+      <c r="M58" s="6">
+        <v>1092.01</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1281.93</v>
+      </c>
+      <c r="O58" s="6">
+        <v>1107.93</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
@@ -6363,41 +6371,41 @@
       <c r="C59" t="s">
         <v>72</v>
       </c>
-      <c r="D59">
-        <v>51.28</v>
-      </c>
-      <c r="E59">
-        <v>985.14</v>
-      </c>
-      <c r="F59">
-        <v>1038.82</v>
-      </c>
-      <c r="G59">
-        <v>930.3</v>
-      </c>
-      <c r="H59">
-        <v>851.24</v>
-      </c>
-      <c r="I59">
-        <v>592.51</v>
-      </c>
-      <c r="J59">
-        <v>278.60000000000002</v>
-      </c>
-      <c r="K59">
-        <v>664.75</v>
-      </c>
-      <c r="L59">
-        <v>832.75</v>
-      </c>
-      <c r="M59">
-        <v>620.86</v>
-      </c>
-      <c r="N59">
-        <v>824.64</v>
-      </c>
-      <c r="O59">
-        <v>635.49</v>
+      <c r="D59" s="6">
+        <v>517.75</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1635.95</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1657.2</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1585.66</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1480.36</v>
+      </c>
+      <c r="I59" s="6">
+        <v>1230.3499999999999</v>
+      </c>
+      <c r="J59" s="6">
+        <v>899.03</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1293.0999999999999</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1447.63</v>
+      </c>
+      <c r="M59" s="6">
+        <v>1248.6400000000001</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1448.57</v>
+      </c>
+      <c r="O59" s="6">
+        <v>1263.6099999999999</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
@@ -6405,41 +6413,41 @@
       <c r="C60" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D60">
-        <v>6.33</v>
-      </c>
-      <c r="E60">
-        <v>770.76</v>
-      </c>
-      <c r="F60">
-        <v>874.45</v>
-      </c>
-      <c r="G60">
-        <v>730.5</v>
-      </c>
-      <c r="H60">
-        <v>645.12</v>
-      </c>
-      <c r="I60">
-        <v>343.45</v>
-      </c>
-      <c r="J60">
-        <v>120.62</v>
-      </c>
-      <c r="K60">
-        <v>395.68</v>
-      </c>
-      <c r="L60">
-        <v>378.67</v>
-      </c>
-      <c r="M60">
-        <v>673.35</v>
-      </c>
-      <c r="N60">
-        <v>675.9</v>
-      </c>
-      <c r="O60">
-        <v>370.35</v>
+      <c r="D60" s="6">
+        <v>420.37</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1528.84</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1556.37</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1488.49</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1385.27</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1125.77</v>
+      </c>
+      <c r="J60" s="6">
+        <v>855.07</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1202.3699999999999</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1355.08</v>
+      </c>
+      <c r="M60" s="6">
+        <v>1147.1199999999999</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1354.75</v>
+      </c>
+      <c r="O60" s="6">
+        <v>1172.69</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
@@ -6447,41 +6455,41 @@
       <c r="C61" t="s">
         <v>73</v>
       </c>
-      <c r="D61">
-        <v>17.98</v>
-      </c>
-      <c r="E61">
-        <v>897.15</v>
-      </c>
-      <c r="F61">
-        <v>991.65</v>
-      </c>
-      <c r="G61">
-        <v>855.96</v>
-      </c>
-      <c r="H61">
-        <v>762.87</v>
-      </c>
-      <c r="I61">
-        <v>457.02</v>
-      </c>
-      <c r="J61">
-        <v>190.53</v>
-      </c>
-      <c r="K61">
-        <v>527.96</v>
-      </c>
-      <c r="L61">
-        <v>797.53</v>
-      </c>
-      <c r="M61">
-        <v>492.44</v>
-      </c>
-      <c r="N61">
-        <v>800.04</v>
-      </c>
-      <c r="O61">
-        <v>498.46</v>
+      <c r="D61" s="6">
+        <v>595.5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1688.34</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1709.99</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1642.82</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1536.04</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1261.9000000000001</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1020.47</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1336.72</v>
+      </c>
+      <c r="L61" s="6">
+        <v>1502.88</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1283.27</v>
+      </c>
+      <c r="N61" s="6">
+        <v>1508.17</v>
+      </c>
+      <c r="O61" s="6">
+        <v>1305.23</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
@@ -6489,41 +6497,41 @@
       <c r="C62" t="s">
         <v>74</v>
       </c>
-      <c r="D62">
-        <v>51.43</v>
-      </c>
-      <c r="E62">
-        <v>1014.15</v>
-      </c>
-      <c r="F62">
-        <v>1102.98</v>
-      </c>
-      <c r="G62">
-        <v>973.57</v>
-      </c>
-      <c r="H62">
-        <v>876.56</v>
-      </c>
-      <c r="I62">
-        <v>592.73</v>
-      </c>
-      <c r="J62">
-        <v>278.79000000000002</v>
-      </c>
-      <c r="K62">
-        <v>664.91</v>
-      </c>
-      <c r="L62">
-        <v>920.77</v>
-      </c>
-      <c r="M62">
-        <v>621.46</v>
-      </c>
-      <c r="N62">
-        <v>916.75</v>
-      </c>
-      <c r="O62">
-        <v>635.73</v>
+      <c r="D62" s="6">
+        <v>782.29</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1857.43</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1875.64</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1809.13</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1693.86</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1405.45</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1163.8800000000001</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1480.9</v>
+      </c>
+      <c r="L62" s="6">
+        <v>1661.92</v>
+      </c>
+      <c r="M62" s="6">
+        <v>1428.43</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1668</v>
+      </c>
+      <c r="O62" s="6">
+        <v>1449.06</v>
       </c>
     </row>
   </sheetData>
